--- a/dataproject/INDKP106.xlsx
+++ b/dataproject/INDKP106.xlsx
@@ -61,7 +61,7 @@
     <x:t>Mænd og kvinder i alt</x:t>
   </x:si>
   <x:si>
-    <x:t>Indkomstbeløb (1.000 kr.)</x:t>
+    <x:t>Gennemsnit for personer i gruppen (kr.)</x:t>
   </x:si>
   <x:si>
     <x:t>Hele landet</x:t>
@@ -813,10 +813,9 @@
     <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="6.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="22.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="25.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="38.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="28.700625" style="0" customWidth="1"/>
-    <x:col min="6" max="11" width="11.980625" style="0" customWidth="1"/>
-    <x:col min="12" max="15" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="15" width="8.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:15">
@@ -878,34 +877,34 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="4" t="n">
-        <x:v>802439564</x:v>
+        <x:v>179308</x:v>
       </x:c>
       <x:c r="G4" s="4" t="n">
-        <x:v>878313737</x:v>
+        <x:v>195011</x:v>
       </x:c>
       <x:c r="H4" s="4" t="n">
-        <x:v>901882320</x:v>
+        <x:v>199057</x:v>
       </x:c>
       <x:c r="I4" s="4" t="n">
-        <x:v>930473137</x:v>
+        <x:v>204037</x:v>
       </x:c>
       <x:c r="J4" s="4" t="n">
-        <x:v>962832267</x:v>
+        <x:v>209655</x:v>
       </x:c>
       <x:c r="K4" s="4" t="n">
-        <x:v>989594296</x:v>
+        <x:v>214009</x:v>
       </x:c>
       <x:c r="L4" s="4" t="n">
-        <x:v>1026867344</x:v>
+        <x:v>220185</x:v>
       </x:c>
       <x:c r="M4" s="4" t="n">
-        <x:v>1051620050</x:v>
+        <x:v>223438</x:v>
       </x:c>
       <x:c r="N4" s="4" t="n">
-        <x:v>1090666920</x:v>
+        <x:v>229875</x:v>
       </x:c>
       <x:c r="O4" s="4" t="n">
-        <x:v>1123450045</x:v>
+        <x:v>235312</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:15">
@@ -913,34 +912,34 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="4" t="n">
-        <x:v>99433501</x:v>
+        <x:v>177821</x:v>
       </x:c>
       <x:c r="G5" s="4" t="n">
-        <x:v>108846243</x:v>
+        <x:v>191577</x:v>
       </x:c>
       <x:c r="H5" s="4" t="n">
-        <x:v>113502833</x:v>
+        <x:v>196833</x:v>
       </x:c>
       <x:c r="I5" s="4" t="n">
-        <x:v>118030035</x:v>
+        <x:v>200886</x:v>
       </x:c>
       <x:c r="J5" s="4" t="n">
-        <x:v>123097079</x:v>
+        <x:v>206286</x:v>
       </x:c>
       <x:c r="K5" s="4" t="n">
-        <x:v>128457960</x:v>
+        <x:v>212311</x:v>
       </x:c>
       <x:c r="L5" s="4" t="n">
-        <x:v>134337272</x:v>
+        <x:v>218440</x:v>
       </x:c>
       <x:c r="M5" s="4" t="n">
-        <x:v>139706824</x:v>
+        <x:v>223635</x:v>
       </x:c>
       <x:c r="N5" s="4" t="n">
-        <x:v>145595446</x:v>
+        <x:v>229793</x:v>
       </x:c>
       <x:c r="O5" s="4" t="n">
-        <x:v>152351494</x:v>
+        <x:v>237224</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:15">
@@ -948,34 +947,34 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="4" t="n">
-        <x:v>74893958</x:v>
+        <x:v>171951</x:v>
       </x:c>
       <x:c r="G6" s="4" t="n">
-        <x:v>81567769</x:v>
+        <x:v>184281</x:v>
       </x:c>
       <x:c r="H6" s="4" t="n">
-        <x:v>85092461</x:v>
+        <x:v>189182</x:v>
       </x:c>
       <x:c r="I6" s="4" t="n">
-        <x:v>88573632</x:v>
+        <x:v>192990</x:v>
       </x:c>
       <x:c r="J6" s="4" t="n">
-        <x:v>92540877</x:v>
+        <x:v>198131</x:v>
       </x:c>
       <x:c r="K6" s="4" t="n">
-        <x:v>96855475</x:v>
+        <x:v>204008</x:v>
       </x:c>
       <x:c r="L6" s="4" t="n">
-        <x:v>101553344</x:v>
+        <x:v>209991</x:v>
       </x:c>
       <x:c r="M6" s="4" t="n">
-        <x:v>106013790</x:v>
+        <x:v>215215</x:v>
       </x:c>
       <x:c r="N6" s="4" t="n">
-        <x:v>110829767</x:v>
+        <x:v>220945</x:v>
       </x:c>
       <x:c r="O6" s="4" t="n">
-        <x:v>116582680</x:v>
+        <x:v>228338</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15">
@@ -983,34 +982,34 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F7" s="4" t="n">
-        <x:v>15972851</x:v>
+        <x:v>199731</x:v>
       </x:c>
       <x:c r="G7" s="4" t="n">
-        <x:v>17887465</x:v>
+        <x:v>219475</x:v>
       </x:c>
       <x:c r="H7" s="4" t="n">
-        <x:v>18550764</x:v>
+        <x:v>224754</x:v>
       </x:c>
       <x:c r="I7" s="4" t="n">
-        <x:v>19352671</x:v>
+        <x:v>230908</x:v>
       </x:c>
       <x:c r="J7" s="4" t="n">
-        <x:v>20134739</x:v>
+        <x:v>238371</x:v>
       </x:c>
       <x:c r="K7" s="4" t="n">
-        <x:v>20813289</x:v>
+        <x:v>245712</x:v>
       </x:c>
       <x:c r="L7" s="4" t="n">
-        <x:v>21654223</x:v>
+        <x:v>252988</x:v>
       </x:c>
       <x:c r="M7" s="4" t="n">
-        <x:v>22263627</x:v>
+        <x:v>258624</x:v>
       </x:c>
       <x:c r="N7" s="4" t="n">
-        <x:v>22989645</x:v>
+        <x:v>267820</x:v>
       </x:c>
       <x:c r="O7" s="4" t="n">
-        <x:v>23677723</x:v>
+        <x:v>276683</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:15">
@@ -1018,34 +1017,34 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F8" s="4" t="n">
-        <x:v>2360137</x:v>
+        <x:v>217104</x:v>
       </x:c>
       <x:c r="G8" s="4" t="n">
-        <x:v>2663229</x:v>
+        <x:v>242929</x:v>
       </x:c>
       <x:c r="H8" s="4" t="n">
-        <x:v>2876543</x:v>
+        <x:v>261933</x:v>
       </x:c>
       <x:c r="I8" s="4" t="n">
-        <x:v>2954794</x:v>
+        <x:v>264648</x:v>
       </x:c>
       <x:c r="J8" s="4" t="n">
-        <x:v>3041487</x:v>
+        <x:v>270354</x:v>
       </x:c>
       <x:c r="K8" s="4" t="n">
-        <x:v>3153298</x:v>
+        <x:v>279821</x:v>
       </x:c>
       <x:c r="L8" s="4" t="n">
-        <x:v>3275002</x:v>
+        <x:v>289465</x:v>
       </x:c>
       <x:c r="M8" s="4" t="n">
-        <x:v>3379431</x:v>
+        <x:v>295922</x:v>
       </x:c>
       <x:c r="N8" s="4" t="n">
-        <x:v>3487260</x:v>
+        <x:v>303980</x:v>
       </x:c>
       <x:c r="O8" s="4" t="n">
-        <x:v>3583436</x:v>
+        <x:v>311793</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:15">
@@ -1053,34 +1052,34 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="4" t="n">
-        <x:v>6206554</x:v>
+        <x:v>189340</x:v>
       </x:c>
       <x:c r="G9" s="4" t="n">
-        <x:v>6727780</x:v>
+        <x:v>203459</x:v>
       </x:c>
       <x:c r="H9" s="4" t="n">
-        <x:v>6983066</x:v>
+        <x:v>209500</x:v>
       </x:c>
       <x:c r="I9" s="4" t="n">
-        <x:v>7148938</x:v>
+        <x:v>212671</x:v>
       </x:c>
       <x:c r="J9" s="4" t="n">
-        <x:v>7379976</x:v>
+        <x:v>217423</x:v>
       </x:c>
       <x:c r="K9" s="4" t="n">
-        <x:v>7635898</x:v>
+        <x:v>222582</x:v>
       </x:c>
       <x:c r="L9" s="4" t="n">
-        <x:v>7854704</x:v>
+        <x:v>227877</x:v>
       </x:c>
       <x:c r="M9" s="4" t="n">
-        <x:v>8049976</x:v>
+        <x:v>232591</x:v>
       </x:c>
       <x:c r="N9" s="4" t="n">
-        <x:v>8288774</x:v>
+        <x:v>239104</x:v>
       </x:c>
       <x:c r="O9" s="4" t="n">
-        <x:v>8507655</x:v>
+        <x:v>245993</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:15">
@@ -1088,34 +1087,34 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="4" t="n">
-        <x:v>81794029</x:v>
+        <x:v>199095</x:v>
       </x:c>
       <x:c r="G10" s="4" t="n">
-        <x:v>90597534</x:v>
+        <x:v>218907</x:v>
       </x:c>
       <x:c r="H10" s="4" t="n">
-        <x:v>93944590</x:v>
+        <x:v>225103</x:v>
       </x:c>
       <x:c r="I10" s="4" t="n">
-        <x:v>97005604</x:v>
+        <x:v>230320</x:v>
       </x:c>
       <x:c r="J10" s="4" t="n">
-        <x:v>100742240</x:v>
+        <x:v>236677</x:v>
       </x:c>
       <x:c r="K10" s="4" t="n">
-        <x:v>104919581</x:v>
+        <x:v>244283</x:v>
       </x:c>
       <x:c r="L10" s="4" t="n">
-        <x:v>110840405</x:v>
+        <x:v>256174</x:v>
       </x:c>
       <x:c r="M10" s="4" t="n">
-        <x:v>111316001</x:v>
+        <x:v>255631</x:v>
       </x:c>
       <x:c r="N10" s="4" t="n">
-        <x:v>114396845</x:v>
+        <x:v>260813</x:v>
       </x:c>
       <x:c r="O10" s="4" t="n">
-        <x:v>117528713</x:v>
+        <x:v>266919</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:15">
@@ -1123,34 +1122,34 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F11" s="4" t="n">
-        <x:v>3803152</x:v>
+        <x:v>172800</x:v>
       </x:c>
       <x:c r="G11" s="4" t="n">
-        <x:v>4039872</x:v>
+        <x:v>183831</x:v>
       </x:c>
       <x:c r="H11" s="4" t="n">
-        <x:v>4039590</x:v>
+        <x:v>182828</x:v>
       </x:c>
       <x:c r="I11" s="4" t="n">
-        <x:v>4126668</x:v>
+        <x:v>186626</x:v>
       </x:c>
       <x:c r="J11" s="4" t="n">
-        <x:v>4166254</x:v>
+        <x:v>188093</x:v>
       </x:c>
       <x:c r="K11" s="4" t="n">
-        <x:v>4288868</x:v>
+        <x:v>192715</x:v>
       </x:c>
       <x:c r="L11" s="4" t="n">
-        <x:v>4401169</x:v>
+        <x:v>196771</x:v>
       </x:c>
       <x:c r="M11" s="4" t="n">
-        <x:v>4486981</x:v>
+        <x:v>199705</x:v>
       </x:c>
       <x:c r="N11" s="4" t="n">
-        <x:v>4538784</x:v>
+        <x:v>202561</x:v>
       </x:c>
       <x:c r="O11" s="4" t="n">
-        <x:v>4687945</x:v>
+        <x:v>208399</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:15">
@@ -1158,34 +1157,34 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F12" s="4" t="n">
-        <x:v>7044881</x:v>
+        <x:v>183351</x:v>
       </x:c>
       <x:c r="G12" s="4" t="n">
-        <x:v>7630917</x:v>
+        <x:v>197401</x:v>
       </x:c>
       <x:c r="H12" s="4" t="n">
-        <x:v>7850685</x:v>
+        <x:v>202452</x:v>
       </x:c>
       <x:c r="I12" s="4" t="n">
-        <x:v>8061961</x:v>
+        <x:v>206484</x:v>
       </x:c>
       <x:c r="J12" s="4" t="n">
-        <x:v>8278990</x:v>
+        <x:v>210474</x:v>
       </x:c>
       <x:c r="K12" s="4" t="n">
-        <x:v>8659072</x:v>
+        <x:v>219824</x:v>
       </x:c>
       <x:c r="L12" s="4" t="n">
-        <x:v>8790449</x:v>
+        <x:v>223323</x:v>
       </x:c>
       <x:c r="M12" s="4" t="n">
-        <x:v>8869465</x:v>
+        <x:v>225245</x:v>
       </x:c>
       <x:c r="N12" s="4" t="n">
-        <x:v>9095099</x:v>
+        <x:v>230366</x:v>
       </x:c>
       <x:c r="O12" s="4" t="n">
-        <x:v>9360779</x:v>
+        <x:v>236121</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:15">
@@ -1193,34 +1192,34 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F13" s="4" t="n">
-        <x:v>4733778</x:v>
+        <x:v>171557</x:v>
       </x:c>
       <x:c r="G13" s="4" t="n">
-        <x:v>5069172</x:v>
+        <x:v>182312</x:v>
       </x:c>
       <x:c r="H13" s="4" t="n">
-        <x:v>5177245</x:v>
+        <x:v>185604</x:v>
       </x:c>
       <x:c r="I13" s="4" t="n">
-        <x:v>5252892</x:v>
+        <x:v>187577</x:v>
       </x:c>
       <x:c r="J13" s="4" t="n">
-        <x:v>5386333</x:v>
+        <x:v>190532</x:v>
       </x:c>
       <x:c r="K13" s="4" t="n">
-        <x:v>5545927</x:v>
+        <x:v>193785</x:v>
       </x:c>
       <x:c r="L13" s="4" t="n">
-        <x:v>5680410</x:v>
+        <x:v>197052</x:v>
       </x:c>
       <x:c r="M13" s="4" t="n">
-        <x:v>5841564</x:v>
+        <x:v>201440</x:v>
       </x:c>
       <x:c r="N13" s="4" t="n">
-        <x:v>5943205</x:v>
+        <x:v>205179</x:v>
       </x:c>
       <x:c r="O13" s="4" t="n">
-        <x:v>6085241</x:v>
+        <x:v>211029</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:15">
@@ -1228,34 +1227,34 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F14" s="4" t="n">
-        <x:v>15285447</x:v>
+        <x:v>274992</x:v>
       </x:c>
       <x:c r="G14" s="4" t="n">
-        <x:v>18023550</x:v>
+        <x:v>321327</x:v>
       </x:c>
       <x:c r="H14" s="4" t="n">
-        <x:v>19321553</x:v>
+        <x:v>339165</x:v>
       </x:c>
       <x:c r="I14" s="4" t="n">
-        <x:v>20208793</x:v>
+        <x:v>351659</x:v>
       </x:c>
       <x:c r="J14" s="4" t="n">
-        <x:v>21249188</x:v>
+        <x:v>363825</x:v>
       </x:c>
       <x:c r="K14" s="4" t="n">
-        <x:v>22353648</x:v>
+        <x:v>378676</x:v>
       </x:c>
       <x:c r="L14" s="4" t="n">
-        <x:v>25257002</x:v>
+        <x:v>425302</x:v>
       </x:c>
       <x:c r="M14" s="4" t="n">
-        <x:v>24611533</x:v>
+        <x:v>412157</x:v>
       </x:c>
       <x:c r="N14" s="4" t="n">
-        <x:v>25194522</x:v>
+        <x:v>419650</x:v>
       </x:c>
       <x:c r="O14" s="4" t="n">
-        <x:v>25528976</x:v>
+        <x:v>427370</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:15">
@@ -1263,34 +1262,34 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F15" s="4" t="n">
-        <x:v>9783481</x:v>
+        <x:v>191061</x:v>
       </x:c>
       <x:c r="G15" s="4" t="n">
-        <x:v>10781773</x:v>
+        <x:v>207801</x:v>
       </x:c>
       <x:c r="H15" s="4" t="n">
-        <x:v>11127580</x:v>
+        <x:v>213516</x:v>
       </x:c>
       <x:c r="I15" s="4" t="n">
-        <x:v>11470427</x:v>
+        <x:v>217354</x:v>
       </x:c>
       <x:c r="J15" s="4" t="n">
-        <x:v>11914663</x:v>
+        <x:v>224069</x:v>
       </x:c>
       <x:c r="K15" s="4" t="n">
-        <x:v>12365338</x:v>
+        <x:v>230224</x:v>
       </x:c>
       <x:c r="L15" s="4" t="n">
-        <x:v>12764131</x:v>
+        <x:v>235249</x:v>
       </x:c>
       <x:c r="M15" s="4" t="n">
-        <x:v>13089318</x:v>
+        <x:v>238495</x:v>
       </x:c>
       <x:c r="N15" s="4" t="n">
-        <x:v>13623107</x:v>
+        <x:v>245192</x:v>
       </x:c>
       <x:c r="O15" s="4" t="n">
-        <x:v>13955526</x:v>
+        <x:v>250679</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15">
@@ -1298,34 +1297,34 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F16" s="4" t="n">
-        <x:v>3277712</x:v>
+        <x:v>187212</x:v>
       </x:c>
       <x:c r="G16" s="4" t="n">
-        <x:v>3532065</x:v>
+        <x:v>201063</x:v>
       </x:c>
       <x:c r="H16" s="4" t="n">
-        <x:v>3608254</x:v>
+        <x:v>202928</x:v>
       </x:c>
       <x:c r="I16" s="4" t="n">
-        <x:v>3692581</x:v>
+        <x:v>205223</x:v>
       </x:c>
       <x:c r="J16" s="4" t="n">
-        <x:v>3814061</x:v>
+        <x:v>210408</x:v>
       </x:c>
       <x:c r="K16" s="4" t="n">
-        <x:v>3912666</x:v>
+        <x:v>213912</x:v>
       </x:c>
       <x:c r="L16" s="4" t="n">
-        <x:v>4039376</x:v>
+        <x:v>219926</x:v>
       </x:c>
       <x:c r="M16" s="4" t="n">
-        <x:v>4088972</x:v>
+        <x:v>222384</x:v>
       </x:c>
       <x:c r="N16" s="4" t="n">
-        <x:v>4208100</x:v>
+        <x:v>228242</x:v>
       </x:c>
       <x:c r="O16" s="4" t="n">
-        <x:v>4311962</x:v>
+        <x:v>232928</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:15">
@@ -1333,34 +1332,34 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F17" s="4" t="n">
-        <x:v>3996635</x:v>
+        <x:v>185132</x:v>
       </x:c>
       <x:c r="G17" s="4" t="n">
-        <x:v>4306986</x:v>
+        <x:v>199259</x:v>
       </x:c>
       <x:c r="H17" s="4" t="n">
-        <x:v>4388673</x:v>
+        <x:v>203029</x:v>
       </x:c>
       <x:c r="I17" s="4" t="n">
-        <x:v>4530867</x:v>
+        <x:v>207286</x:v>
       </x:c>
       <x:c r="J17" s="4" t="n">
-        <x:v>4781691</x:v>
+        <x:v>213345</x:v>
       </x:c>
       <x:c r="K17" s="4" t="n">
-        <x:v>4901861</x:v>
+        <x:v>215922</x:v>
       </x:c>
       <x:c r="L17" s="4" t="n">
-        <x:v>5058300</x:v>
+        <x:v>220790</x:v>
       </x:c>
       <x:c r="M17" s="4" t="n">
-        <x:v>5161972</x:v>
+        <x:v>225266</x:v>
       </x:c>
       <x:c r="N17" s="4" t="n">
-        <x:v>5267197</x:v>
+        <x:v>229138</x:v>
       </x:c>
       <x:c r="O17" s="4" t="n">
-        <x:v>5484207</x:v>
+        <x:v>236643</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:15">
@@ -1368,34 +1367,34 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F18" s="4" t="n">
-        <x:v>7210313</x:v>
+        <x:v>179674</x:v>
       </x:c>
       <x:c r="G18" s="4" t="n">
-        <x:v>7830248</x:v>
+        <x:v>193402</x:v>
       </x:c>
       <x:c r="H18" s="4" t="n">
-        <x:v>8044541</x:v>
+        <x:v>196751</x:v>
       </x:c>
       <x:c r="I18" s="4" t="n">
-        <x:v>8328167</x:v>
+        <x:v>200751</x:v>
       </x:c>
       <x:c r="J18" s="4" t="n">
-        <x:v>8571536</x:v>
+        <x:v>204689</x:v>
       </x:c>
       <x:c r="K18" s="4" t="n">
-        <x:v>8880000</x:v>
+        <x:v>210133</x:v>
       </x:c>
       <x:c r="L18" s="4" t="n">
-        <x:v>9104816</x:v>
+        <x:v>213854</x:v>
       </x:c>
       <x:c r="M18" s="4" t="n">
-        <x:v>9316106</x:v>
+        <x:v>217747</x:v>
       </x:c>
       <x:c r="N18" s="4" t="n">
-        <x:v>9551106</x:v>
+        <x:v>222678</x:v>
       </x:c>
       <x:c r="O18" s="4" t="n">
-        <x:v>9845533</x:v>
+        <x:v>229211</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:15">
@@ -1403,34 +1402,34 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="4" t="n">
-        <x:v>6968955</x:v>
+        <x:v>184364</x:v>
       </x:c>
       <x:c r="G19" s="4" t="n">
-        <x:v>7417050</x:v>
+        <x:v>195732</x:v>
       </x:c>
       <x:c r="H19" s="4" t="n">
-        <x:v>7608478</x:v>
+        <x:v>198826</x:v>
       </x:c>
       <x:c r="I19" s="4" t="n">
-        <x:v>7771695</x:v>
+        <x:v>201616</x:v>
       </x:c>
       <x:c r="J19" s="4" t="n">
-        <x:v>7993612</x:v>
+        <x:v>205502</x:v>
       </x:c>
       <x:c r="K19" s="4" t="n">
-        <x:v>8221144</x:v>
+        <x:v>209435</x:v>
       </x:c>
       <x:c r="L19" s="4" t="n">
-        <x:v>8471969</x:v>
+        <x:v>212484</x:v>
       </x:c>
       <x:c r="M19" s="4" t="n">
-        <x:v>8698807</x:v>
+        <x:v>216200</x:v>
       </x:c>
       <x:c r="N19" s="4" t="n">
-        <x:v>8994810</x:v>
+        <x:v>221711</x:v>
       </x:c>
       <x:c r="O19" s="4" t="n">
-        <x:v>9204395</x:v>
+        <x:v>225609</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15">
@@ -1438,34 +1437,34 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F20" s="4" t="n">
-        <x:v>2742798</x:v>
+        <x:v>167550</x:v>
       </x:c>
       <x:c r="G20" s="4" t="n">
-        <x:v>2956435</x:v>
+        <x:v>179004</x:v>
       </x:c>
       <x:c r="H20" s="4" t="n">
-        <x:v>3042952</x:v>
+        <x:v>181875</x:v>
       </x:c>
       <x:c r="I20" s="4" t="n">
-        <x:v>3106707</x:v>
+        <x:v>184956</x:v>
       </x:c>
       <x:c r="J20" s="4" t="n">
-        <x:v>3222969</x:v>
+        <x:v>187709</x:v>
       </x:c>
       <x:c r="K20" s="4" t="n">
-        <x:v>3333020</x:v>
+        <x:v>189764</x:v>
       </x:c>
       <x:c r="L20" s="4" t="n">
-        <x:v>3447568</x:v>
+        <x:v>193760</x:v>
       </x:c>
       <x:c r="M20" s="4" t="n">
-        <x:v>3552251</x:v>
+        <x:v>196572</x:v>
       </x:c>
       <x:c r="N20" s="4" t="n">
-        <x:v>3687224</x:v>
+        <x:v>200961</x:v>
       </x:c>
       <x:c r="O20" s="4" t="n">
-        <x:v>3767589</x:v>
+        <x:v>205800</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:15">
@@ -1473,34 +1472,34 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F21" s="4" t="n">
-        <x:v>9376328</x:v>
+        <x:v>223304</x:v>
       </x:c>
       <x:c r="G21" s="4" t="n">
-        <x:v>10764944</x:v>
+        <x:v>254713</x:v>
       </x:c>
       <x:c r="H21" s="4" t="n">
-        <x:v>11238281</x:v>
+        <x:v>263333</x:v>
       </x:c>
       <x:c r="I21" s="4" t="n">
-        <x:v>11681673</x:v>
+        <x:v>271433</x:v>
       </x:c>
       <x:c r="J21" s="4" t="n">
-        <x:v>12277998</x:v>
+        <x:v>282845</x:v>
       </x:c>
       <x:c r="K21" s="4" t="n">
-        <x:v>13068896</x:v>
+        <x:v>298540</x:v>
       </x:c>
       <x:c r="L21" s="4" t="n">
-        <x:v>14154142</x:v>
+        <x:v>321890</x:v>
       </x:c>
       <x:c r="M21" s="4" t="n">
-        <x:v>13680311</x:v>
+        <x:v>310197</x:v>
       </x:c>
       <x:c r="N21" s="4" t="n">
-        <x:v>13921780</x:v>
+        <x:v>313568</x:v>
       </x:c>
       <x:c r="O21" s="4" t="n">
-        <x:v>14471010</x:v>
+        <x:v>322546</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:15">
@@ -1508,34 +1507,34 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F22" s="4" t="n">
-        <x:v>5311995</x:v>
+        <x:v>179581</x:v>
       </x:c>
       <x:c r="G22" s="4" t="n">
-        <x:v>5723225</x:v>
+        <x:v>192209</x:v>
       </x:c>
       <x:c r="H22" s="4" t="n">
-        <x:v>5916725</x:v>
+        <x:v>196608</x:v>
       </x:c>
       <x:c r="I22" s="4" t="n">
-        <x:v>6092918</x:v>
+        <x:v>200326</x:v>
       </x:c>
       <x:c r="J22" s="4" t="n">
-        <x:v>6292667</x:v>
+        <x:v>205730</x:v>
       </x:c>
       <x:c r="K22" s="4" t="n">
-        <x:v>6476405</x:v>
+        <x:v>210786</x:v>
       </x:c>
       <x:c r="L22" s="4" t="n">
-        <x:v>6693260</x:v>
+        <x:v>216505</x:v>
       </x:c>
       <x:c r="M22" s="4" t="n">
-        <x:v>6890948</x:v>
+        <x:v>220440</x:v>
       </x:c>
       <x:c r="N22" s="4" t="n">
-        <x:v>7199164</x:v>
+        <x:v>226083</x:v>
       </x:c>
       <x:c r="O22" s="4" t="n">
-        <x:v>7508652</x:v>
+        <x:v>232107</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:15">
@@ -1543,34 +1542,34 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F23" s="4" t="n">
-        <x:v>2258553</x:v>
+        <x:v>204412</x:v>
       </x:c>
       <x:c r="G23" s="4" t="n">
-        <x:v>2521296</x:v>
+        <x:v>222513</x:v>
       </x:c>
       <x:c r="H23" s="4" t="n">
-        <x:v>2580034</x:v>
+        <x:v>225587</x:v>
       </x:c>
       <x:c r="I23" s="4" t="n">
-        <x:v>2680253</x:v>
+        <x:v>230163</x:v>
       </x:c>
       <x:c r="J23" s="4" t="n">
-        <x:v>2792277</x:v>
+        <x:v>235874</x:v>
       </x:c>
       <x:c r="K23" s="4" t="n">
-        <x:v>2912735</x:v>
+        <x:v>244275</x:v>
       </x:c>
       <x:c r="L23" s="4" t="n">
-        <x:v>2977813</x:v>
+        <x:v>246651</x:v>
       </x:c>
       <x:c r="M23" s="4" t="n">
-        <x:v>3027774</x:v>
+        <x:v>246964</x:v>
       </x:c>
       <x:c r="N23" s="4" t="n">
-        <x:v>3172747</x:v>
+        <x:v>250019</x:v>
       </x:c>
       <x:c r="O23" s="4" t="n">
-        <x:v>3316899</x:v>
+        <x:v>255657</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:15">
@@ -1578,34 +1577,34 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F24" s="4" t="n">
-        <x:v>73839487</x:v>
+        <x:v>208642</x:v>
       </x:c>
       <x:c r="G24" s="4" t="n">
-        <x:v>83564533</x:v>
+        <x:v>234464</x:v>
       </x:c>
       <x:c r="H24" s="4" t="n">
-        <x:v>85818538</x:v>
+        <x:v>239580</x:v>
       </x:c>
       <x:c r="I24" s="4" t="n">
-        <x:v>89149557</x:v>
+        <x:v>247305</x:v>
       </x:c>
       <x:c r="J24" s="4" t="n">
-        <x:v>93009309</x:v>
+        <x:v>255995</x:v>
       </x:c>
       <x:c r="K24" s="4" t="n">
-        <x:v>96417077</x:v>
+        <x:v>263154</x:v>
       </x:c>
       <x:c r="L24" s="4" t="n">
-        <x:v>100205688</x:v>
+        <x:v>270521</x:v>
       </x:c>
       <x:c r="M24" s="4" t="n">
-        <x:v>103403324</x:v>
+        <x:v>276241</x:v>
       </x:c>
       <x:c r="N24" s="4" t="n">
-        <x:v>106757699</x:v>
+        <x:v>283093</x:v>
       </x:c>
       <x:c r="O24" s="4" t="n">
-        <x:v>109431401</x:v>
+        <x:v>288359</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:15">
@@ -1613,34 +1612,34 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F25" s="4" t="n">
-        <x:v>4182656</x:v>
+        <x:v>224741</x:v>
       </x:c>
       <x:c r="G25" s="4" t="n">
-        <x:v>4701905</x:v>
+        <x:v>251802</x:v>
       </x:c>
       <x:c r="H25" s="4" t="n">
-        <x:v>4904330</x:v>
+        <x:v>261760</x:v>
       </x:c>
       <x:c r="I25" s="4" t="n">
-        <x:v>5027721</x:v>
+        <x:v>266595</x:v>
       </x:c>
       <x:c r="J25" s="4" t="n">
-        <x:v>5197498</x:v>
+        <x:v>273294</x:v>
       </x:c>
       <x:c r="K25" s="4" t="n">
-        <x:v>5428225</x:v>
+        <x:v>280848</x:v>
       </x:c>
       <x:c r="L25" s="4" t="n">
-        <x:v>5644779</x:v>
+        <x:v>288485</x:v>
       </x:c>
       <x:c r="M25" s="4" t="n">
-        <x:v>5802932</x:v>
+        <x:v>293063</x:v>
       </x:c>
       <x:c r="N25" s="4" t="n">
-        <x:v>6057441</x:v>
+        <x:v>300931</x:v>
       </x:c>
       <x:c r="O25" s="4" t="n">
-        <x:v>6255219</x:v>
+        <x:v>306103</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:15">
@@ -1648,34 +1647,34 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F26" s="4" t="n">
-        <x:v>6607179</x:v>
+        <x:v>206649</x:v>
       </x:c>
       <x:c r="G26" s="4" t="n">
-        <x:v>7370240</x:v>
+        <x:v>228868</x:v>
       </x:c>
       <x:c r="H26" s="4" t="n">
-        <x:v>7558802</x:v>
+        <x:v>232521</x:v>
       </x:c>
       <x:c r="I26" s="4" t="n">
-        <x:v>7791210</x:v>
+        <x:v>237053</x:v>
       </x:c>
       <x:c r="J26" s="4" t="n">
-        <x:v>8121483</x:v>
+        <x:v>244977</x:v>
       </x:c>
       <x:c r="K26" s="4" t="n">
-        <x:v>8361587</x:v>
+        <x:v>248827</x:v>
       </x:c>
       <x:c r="L26" s="4" t="n">
-        <x:v>8659028</x:v>
+        <x:v>256199</x:v>
       </x:c>
       <x:c r="M26" s="4" t="n">
-        <x:v>8855772</x:v>
+        <x:v>258933</x:v>
       </x:c>
       <x:c r="N26" s="4" t="n">
-        <x:v>9196169</x:v>
+        <x:v>267883</x:v>
       </x:c>
       <x:c r="O26" s="4" t="n">
-        <x:v>9535425</x:v>
+        <x:v>274867</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:15">
@@ -1683,34 +1682,34 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F27" s="4" t="n">
-        <x:v>6472087</x:v>
+        <x:v>208582</x:v>
       </x:c>
       <x:c r="G27" s="4" t="n">
-        <x:v>7252937</x:v>
+        <x:v>232064</x:v>
       </x:c>
       <x:c r="H27" s="4" t="n">
-        <x:v>7422719</x:v>
+        <x:v>235433</x:v>
       </x:c>
       <x:c r="I27" s="4" t="n">
-        <x:v>7642120</x:v>
+        <x:v>241954</x:v>
       </x:c>
       <x:c r="J27" s="4" t="n">
-        <x:v>7976039</x:v>
+        <x:v>250551</x:v>
       </x:c>
       <x:c r="K27" s="4" t="n">
-        <x:v>8245816</x:v>
+        <x:v>257143</x:v>
       </x:c>
       <x:c r="L27" s="4" t="n">
-        <x:v>8676453</x:v>
+        <x:v>268065</x:v>
       </x:c>
       <x:c r="M27" s="4" t="n">
-        <x:v>8867817</x:v>
+        <x:v>270154</x:v>
       </x:c>
       <x:c r="N27" s="4" t="n">
-        <x:v>9090032</x:v>
+        <x:v>274358</x:v>
       </x:c>
       <x:c r="O27" s="4" t="n">
-        <x:v>9366636</x:v>
+        <x:v>281526</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:15">
@@ -1718,34 +1717,34 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F28" s="4" t="n">
-        <x:v>6679672</x:v>
+        <x:v>188638</x:v>
       </x:c>
       <x:c r="G28" s="4" t="n">
-        <x:v>7226557</x:v>
+        <x:v>202635</x:v>
       </x:c>
       <x:c r="H28" s="4" t="n">
-        <x:v>7408783</x:v>
+        <x:v>206586</x:v>
       </x:c>
       <x:c r="I28" s="4" t="n">
-        <x:v>7613774</x:v>
+        <x:v>211200</x:v>
       </x:c>
       <x:c r="J28" s="4" t="n">
-        <x:v>7887183</x:v>
+        <x:v>217812</x:v>
       </x:c>
       <x:c r="K28" s="4" t="n">
-        <x:v>8092444</x:v>
+        <x:v>222302</x:v>
       </x:c>
       <x:c r="L28" s="4" t="n">
-        <x:v>8345072</x:v>
+        <x:v>227244</x:v>
       </x:c>
       <x:c r="M28" s="4" t="n">
-        <x:v>8604850</x:v>
+        <x:v>231363</x:v>
       </x:c>
       <x:c r="N28" s="4" t="n">
-        <x:v>8841703</x:v>
+        <x:v>235609</x:v>
       </x:c>
       <x:c r="O28" s="4" t="n">
-        <x:v>9148057</x:v>
+        <x:v>242718</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:15">
@@ -1753,34 +1752,34 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F29" s="4" t="n">
-        <x:v>6612768</x:v>
+        <x:v>221771</x:v>
       </x:c>
       <x:c r="G29" s="4" t="n">
-        <x:v>7471834</x:v>
+        <x:v>248168</x:v>
       </x:c>
       <x:c r="H29" s="4" t="n">
-        <x:v>7668878</x:v>
+        <x:v>254231</x:v>
       </x:c>
       <x:c r="I29" s="4" t="n">
-        <x:v>8011715</x:v>
+        <x:v>264457</x:v>
       </x:c>
       <x:c r="J29" s="4" t="n">
-        <x:v>8355116</x:v>
+        <x:v>273454</x:v>
       </x:c>
       <x:c r="K29" s="4" t="n">
-        <x:v>8763841</x:v>
+        <x:v>282531</x:v>
       </x:c>
       <x:c r="L29" s="4" t="n">
-        <x:v>9086760</x:v>
+        <x:v>285128</x:v>
       </x:c>
       <x:c r="M29" s="4" t="n">
-        <x:v>9439531</x:v>
+        <x:v>293053</x:v>
       </x:c>
       <x:c r="N29" s="4" t="n">
-        <x:v>9791782</x:v>
+        <x:v>301119</x:v>
       </x:c>
       <x:c r="O29" s="4" t="n">
-        <x:v>10085242</x:v>
+        <x:v>308833</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:15">
@@ -1788,34 +1787,34 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F30" s="4" t="n">
-        <x:v>6259589</x:v>
+        <x:v>189237</x:v>
       </x:c>
       <x:c r="G30" s="4" t="n">
-        <x:v>6923391</x:v>
+        <x:v>208448</x:v>
       </x:c>
       <x:c r="H30" s="4" t="n">
-        <x:v>7005772</x:v>
+        <x:v>210245</x:v>
       </x:c>
       <x:c r="I30" s="4" t="n">
-        <x:v>7291276</x:v>
+        <x:v>217462</x:v>
       </x:c>
       <x:c r="J30" s="4" t="n">
-        <x:v>7462697</x:v>
+        <x:v>220764</x:v>
       </x:c>
       <x:c r="K30" s="4" t="n">
-        <x:v>7750797</x:v>
+        <x:v>228428</x:v>
       </x:c>
       <x:c r="L30" s="4" t="n">
-        <x:v>7930900</x:v>
+        <x:v>232054</x:v>
       </x:c>
       <x:c r="M30" s="4" t="n">
-        <x:v>8119387</x:v>
+        <x:v>235351</x:v>
       </x:c>
       <x:c r="N30" s="4" t="n">
-        <x:v>8357894</x:v>
+        <x:v>241084</x:v>
       </x:c>
       <x:c r="O30" s="4" t="n">
-        <x:v>8559186</x:v>
+        <x:v>245826</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:15">
@@ -1823,34 +1822,34 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F31" s="4" t="n">
-        <x:v>4459307</x:v>
+        <x:v>175875</x:v>
       </x:c>
       <x:c r="G31" s="4" t="n">
-        <x:v>4821116</x:v>
+        <x:v>189494</x:v>
       </x:c>
       <x:c r="H31" s="4" t="n">
-        <x:v>4866768</x:v>
+        <x:v>191281</x:v>
       </x:c>
       <x:c r="I31" s="4" t="n">
-        <x:v>4981464</x:v>
+        <x:v>195920</x:v>
       </x:c>
       <x:c r="J31" s="4" t="n">
-        <x:v>5126759</x:v>
+        <x:v>201199</x:v>
       </x:c>
       <x:c r="K31" s="4" t="n">
-        <x:v>5274096</x:v>
+        <x:v>205963</x:v>
       </x:c>
       <x:c r="L31" s="4" t="n">
-        <x:v>5464112</x:v>
+        <x:v>210450</x:v>
       </x:c>
       <x:c r="M31" s="4" t="n">
-        <x:v>5582633</x:v>
+        <x:v>213281</x:v>
       </x:c>
       <x:c r="N31" s="4" t="n">
-        <x:v>5766207</x:v>
+        <x:v>219665</x:v>
       </x:c>
       <x:c r="O31" s="4" t="n">
-        <x:v>5943063</x:v>
+        <x:v>224733</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:15">
@@ -1858,34 +1857,34 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F32" s="4" t="n">
-        <x:v>9357313</x:v>
+        <x:v>190185</x:v>
       </x:c>
       <x:c r="G32" s="4" t="n">
-        <x:v>10346929</x:v>
+        <x:v>208852</x:v>
       </x:c>
       <x:c r="H32" s="4" t="n">
-        <x:v>10649070</x:v>
+        <x:v>213742</x:v>
       </x:c>
       <x:c r="I32" s="4" t="n">
-        <x:v>10996200</x:v>
+        <x:v>219131</x:v>
       </x:c>
       <x:c r="J32" s="4" t="n">
-        <x:v>11527031</x:v>
+        <x:v>227974</x:v>
       </x:c>
       <x:c r="K32" s="4" t="n">
-        <x:v>11850943</x:v>
+        <x:v>233337</x:v>
       </x:c>
       <x:c r="L32" s="4" t="n">
-        <x:v>12321238</x:v>
+        <x:v>239974</x:v>
       </x:c>
       <x:c r="M32" s="4" t="n">
-        <x:v>12566751</x:v>
+        <x:v>242869</x:v>
       </x:c>
       <x:c r="N32" s="4" t="n">
-        <x:v>12998180</x:v>
+        <x:v>249399</x:v>
       </x:c>
       <x:c r="O32" s="4" t="n">
-        <x:v>13329001</x:v>
+        <x:v>254779</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:15">
@@ -1893,34 +1892,34 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F33" s="4" t="n">
-        <x:v>7421779</x:v>
+        <x:v>199617</x:v>
       </x:c>
       <x:c r="G33" s="4" t="n">
-        <x:v>8298021</x:v>
+        <x:v>220042</x:v>
       </x:c>
       <x:c r="H33" s="4" t="n">
-        <x:v>8499843</x:v>
+        <x:v>223169</x:v>
       </x:c>
       <x:c r="I33" s="4" t="n">
-        <x:v>8816742</x:v>
+        <x:v>229704</x:v>
       </x:c>
       <x:c r="J33" s="4" t="n">
-        <x:v>9148971</x:v>
+        <x:v>234938</x:v>
       </x:c>
       <x:c r="K33" s="4" t="n">
-        <x:v>9418637</x:v>
+        <x:v>239173</x:v>
       </x:c>
       <x:c r="L33" s="4" t="n">
-        <x:v>10020722</x:v>
+        <x:v>251272</x:v>
       </x:c>
       <x:c r="M33" s="4" t="n">
-        <x:v>10172481</x:v>
+        <x:v>252019</x:v>
       </x:c>
       <x:c r="N33" s="4" t="n">
-        <x:v>10525535</x:v>
+        <x:v>256639</x:v>
       </x:c>
       <x:c r="O33" s="4" t="n">
-        <x:v>10878882</x:v>
+        <x:v>262199</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:15">
@@ -1928,34 +1927,34 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F34" s="4" t="n">
-        <x:v>4889159</x:v>
+        <x:v>250958</x:v>
       </x:c>
       <x:c r="G34" s="4" t="n">
-        <x:v>5947427</x:v>
+        <x:v>303967</x:v>
       </x:c>
       <x:c r="H34" s="4" t="n">
-        <x:v>6174275</x:v>
+        <x:v>314966</x:v>
       </x:c>
       <x:c r="I34" s="4" t="n">
-        <x:v>6413358</x:v>
+        <x:v>323727</x:v>
       </x:c>
       <x:c r="J34" s="4" t="n">
-        <x:v>6739482</x:v>
+        <x:v>336218</x:v>
       </x:c>
       <x:c r="K34" s="4" t="n">
-        <x:v>6926104</x:v>
+        <x:v>342182</x:v>
       </x:c>
       <x:c r="L34" s="4" t="n">
-        <x:v>7218998</x:v>
+        <x:v>354864</x:v>
       </x:c>
       <x:c r="M34" s="4" t="n">
-        <x:v>7352378</x:v>
+        <x:v>359424</x:v>
       </x:c>
       <x:c r="N34" s="4" t="n">
-        <x:v>7806822</x:v>
+        <x:v>380412</x:v>
       </x:c>
       <x:c r="O34" s="4" t="n">
-        <x:v>7716342</x:v>
+        <x:v>375418</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:15">
@@ -1963,34 +1962,34 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F35" s="4" t="n">
-        <x:v>10897979</x:v>
+        <x:v>254810</x:v>
       </x:c>
       <x:c r="G35" s="4" t="n">
-        <x:v>13204175</x:v>
+        <x:v>306853</x:v>
       </x:c>
       <x:c r="H35" s="4" t="n">
-        <x:v>13659299</x:v>
+        <x:v>316723</x:v>
       </x:c>
       <x:c r="I35" s="4" t="n">
-        <x:v>14563978</x:v>
+        <x:v>334819</x:v>
       </x:c>
       <x:c r="J35" s="4" t="n">
-        <x:v>15467051</x:v>
+        <x:v>353767</x:v>
       </x:c>
       <x:c r="K35" s="4" t="n">
-        <x:v>16304585</x:v>
+        <x:v>370374</x:v>
       </x:c>
       <x:c r="L35" s="4" t="n">
-        <x:v>16837625</x:v>
+        <x:v>379354</x:v>
       </x:c>
       <x:c r="M35" s="4" t="n">
-        <x:v>18038792</x:v>
+        <x:v>402149</x:v>
       </x:c>
       <x:c r="N35" s="4" t="n">
-        <x:v>18325935</x:v>
+        <x:v>408095</x:v>
       </x:c>
       <x:c r="O35" s="4" t="n">
-        <x:v>18614348</x:v>
+        <x:v>412461</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:15">
@@ -1998,34 +1997,34 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F36" s="4" t="n">
-        <x:v>5674496</x:v>
+        <x:v>160093</x:v>
       </x:c>
       <x:c r="G36" s="4" t="n">
-        <x:v>6134033</x:v>
+        <x:v>173759</x:v>
       </x:c>
       <x:c r="H36" s="4" t="n">
-        <x:v>6128496</x:v>
+        <x:v>174636</x:v>
       </x:c>
       <x:c r="I36" s="4" t="n">
-        <x:v>6214386</x:v>
+        <x:v>179094</x:v>
       </x:c>
       <x:c r="J36" s="4" t="n">
-        <x:v>6259024</x:v>
+        <x:v>181589</x:v>
       </x:c>
       <x:c r="K36" s="4" t="n">
-        <x:v>6320323</x:v>
+        <x:v>185032</x:v>
       </x:c>
       <x:c r="L36" s="4" t="n">
-        <x:v>6461936</x:v>
+        <x:v>189477</x:v>
       </x:c>
       <x:c r="M36" s="4" t="n">
-        <x:v>6596881</x:v>
+        <x:v>193344</x:v>
       </x:c>
       <x:c r="N36" s="4" t="n">
-        <x:v>6793007</x:v>
+        <x:v>199413</x:v>
       </x:c>
       <x:c r="O36" s="4" t="n">
-        <x:v>6913549</x:v>
+        <x:v>202976</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:15">
@@ -2033,34 +2032,34 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F37" s="4" t="n">
-        <x:v>5674496</x:v>
+        <x:v>160093</x:v>
       </x:c>
       <x:c r="G37" s="4" t="n">
-        <x:v>6134033</x:v>
+        <x:v>173759</x:v>
       </x:c>
       <x:c r="H37" s="4" t="n">
-        <x:v>6128496</x:v>
+        <x:v>174636</x:v>
       </x:c>
       <x:c r="I37" s="4" t="n">
-        <x:v>6214386</x:v>
+        <x:v>179094</x:v>
       </x:c>
       <x:c r="J37" s="4" t="n">
-        <x:v>6259024</x:v>
+        <x:v>181589</x:v>
       </x:c>
       <x:c r="K37" s="4" t="n">
-        <x:v>6320323</x:v>
+        <x:v>185032</x:v>
       </x:c>
       <x:c r="L37" s="4" t="n">
-        <x:v>6461936</x:v>
+        <x:v>189477</x:v>
       </x:c>
       <x:c r="M37" s="4" t="n">
-        <x:v>6596881</x:v>
+        <x:v>193344</x:v>
       </x:c>
       <x:c r="N37" s="4" t="n">
-        <x:v>6793007</x:v>
+        <x:v>199413</x:v>
       </x:c>
       <x:c r="O37" s="4" t="n">
-        <x:v>6913549</x:v>
+        <x:v>202976</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:15">
@@ -2068,34 +2067,34 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F38" s="4" t="n">
-        <x:v>36264678</x:v>
+        <x:v>194313</x:v>
       </x:c>
       <x:c r="G38" s="4" t="n">
-        <x:v>39959135</x:v>
+        <x:v>212577</x:v>
       </x:c>
       <x:c r="H38" s="4" t="n">
-        <x:v>41120127</x:v>
+        <x:v>216972</x:v>
       </x:c>
       <x:c r="I38" s="4" t="n">
-        <x:v>42420870</x:v>
+        <x:v>222101</x:v>
       </x:c>
       <x:c r="J38" s="4" t="n">
-        <x:v>43844885</x:v>
+        <x:v>227139</x:v>
       </x:c>
       <x:c r="K38" s="4" t="n">
-        <x:v>45829101</x:v>
+        <x:v>233766</x:v>
       </x:c>
       <x:c r="L38" s="4" t="n">
-        <x:v>47346340</x:v>
+        <x:v>238670</x:v>
       </x:c>
       <x:c r="M38" s="4" t="n">
-        <x:v>48696176</x:v>
+        <x:v>243164</x:v>
       </x:c>
       <x:c r="N38" s="4" t="n">
-        <x:v>50469565</x:v>
+        <x:v>249893</x:v>
       </x:c>
       <x:c r="O38" s="4" t="n">
-        <x:v>52195044</x:v>
+        <x:v>256338</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:15">
@@ -2103,34 +2102,34 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F39" s="4" t="n">
-        <x:v>7554246</x:v>
+        <x:v>198311</x:v>
       </x:c>
       <x:c r="G39" s="4" t="n">
-        <x:v>8313869</x:v>
+        <x:v>216897</x:v>
       </x:c>
       <x:c r="H39" s="4" t="n">
-        <x:v>8561281</x:v>
+        <x:v>222654</x:v>
       </x:c>
       <x:c r="I39" s="4" t="n">
-        <x:v>8791102</x:v>
+        <x:v>227225</x:v>
       </x:c>
       <x:c r="J39" s="4" t="n">
-        <x:v>9087721</x:v>
+        <x:v>233678</x:v>
       </x:c>
       <x:c r="K39" s="4" t="n">
-        <x:v>9466398</x:v>
+        <x:v>238815</x:v>
       </x:c>
       <x:c r="L39" s="4" t="n">
-        <x:v>9736467</x:v>
+        <x:v>242508</x:v>
       </x:c>
       <x:c r="M39" s="4" t="n">
-        <x:v>9990017</x:v>
+        <x:v>247143</x:v>
       </x:c>
       <x:c r="N39" s="4" t="n">
-        <x:v>10300073</x:v>
+        <x:v>253934</x:v>
       </x:c>
       <x:c r="O39" s="4" t="n">
-        <x:v>10600604</x:v>
+        <x:v>259348</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:15">
@@ -2138,34 +2137,34 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F40" s="4" t="n">
-        <x:v>8366636</x:v>
+        <x:v>184560</x:v>
       </x:c>
       <x:c r="G40" s="4" t="n">
-        <x:v>9100262</x:v>
+        <x:v>199699</x:v>
       </x:c>
       <x:c r="H40" s="4" t="n">
-        <x:v>9275556</x:v>
+        <x:v>202267</x:v>
       </x:c>
       <x:c r="I40" s="4" t="n">
-        <x:v>9584225</x:v>
+        <x:v>206521</x:v>
       </x:c>
       <x:c r="J40" s="4" t="n">
-        <x:v>9940517</x:v>
+        <x:v>210935</x:v>
       </x:c>
       <x:c r="K40" s="4" t="n">
-        <x:v>10428052</x:v>
+        <x:v>217251</x:v>
       </x:c>
       <x:c r="L40" s="4" t="n">
-        <x:v>10760484</x:v>
+        <x:v>221728</x:v>
       </x:c>
       <x:c r="M40" s="4" t="n">
-        <x:v>10994235</x:v>
+        <x:v>224381</x:v>
       </x:c>
       <x:c r="N40" s="4" t="n">
-        <x:v>11416439</x:v>
+        <x:v>230812</x:v>
       </x:c>
       <x:c r="O40" s="4" t="n">
-        <x:v>11819541</x:v>
+        <x:v>236936</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:15">
@@ -2173,34 +2172,34 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F41" s="4" t="n">
-        <x:v>4133555</x:v>
+        <x:v>195820</x:v>
       </x:c>
       <x:c r="G41" s="4" t="n">
-        <x:v>4588725</x:v>
+        <x:v>216889</x:v>
       </x:c>
       <x:c r="H41" s="4" t="n">
-        <x:v>4643136</x:v>
+        <x:v>217508</x:v>
       </x:c>
       <x:c r="I41" s="4" t="n">
-        <x:v>4786488</x:v>
+        <x:v>223167</x:v>
       </x:c>
       <x:c r="J41" s="4" t="n">
-        <x:v>4984513</x:v>
+        <x:v>230093</x:v>
       </x:c>
       <x:c r="K41" s="4" t="n">
-        <x:v>5114564</x:v>
+        <x:v>233233</x:v>
       </x:c>
       <x:c r="L41" s="4" t="n">
-        <x:v>5265541</x:v>
+        <x:v>238443</x:v>
       </x:c>
       <x:c r="M41" s="4" t="n">
-        <x:v>5424806</x:v>
+        <x:v>243866</x:v>
       </x:c>
       <x:c r="N41" s="4" t="n">
-        <x:v>5627459</x:v>
+        <x:v>250901</x:v>
       </x:c>
       <x:c r="O41" s="4" t="n">
-        <x:v>5845405</x:v>
+        <x:v>258246</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:15">
@@ -2208,34 +2207,34 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F42" s="4" t="n">
-        <x:v>12915551</x:v>
+        <x:v>196563</x:v>
       </x:c>
       <x:c r="G42" s="4" t="n">
-        <x:v>14259815</x:v>
+        <x:v>214795</x:v>
       </x:c>
       <x:c r="H42" s="4" t="n">
-        <x:v>14708365</x:v>
+        <x:v>219158</x:v>
       </x:c>
       <x:c r="I42" s="4" t="n">
-        <x:v>15198568</x:v>
+        <x:v>224768</x:v>
       </x:c>
       <x:c r="J42" s="4" t="n">
-        <x:v>15659357</x:v>
+        <x:v>229263</x:v>
       </x:c>
       <x:c r="K42" s="4" t="n">
-        <x:v>16400734</x:v>
+        <x:v>236919</x:v>
       </x:c>
       <x:c r="L42" s="4" t="n">
-        <x:v>17002901</x:v>
+        <x:v>242144</x:v>
       </x:c>
       <x:c r="M42" s="4" t="n">
-        <x:v>17478986</x:v>
+        <x:v>246634</x:v>
       </x:c>
       <x:c r="N42" s="4" t="n">
-        <x:v>18147481</x:v>
+        <x:v>253903</x:v>
       </x:c>
       <x:c r="O42" s="4" t="n">
-        <x:v>18722773</x:v>
+        <x:v>260890</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:15">
@@ -2243,34 +2242,34 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F43" s="4" t="n">
-        <x:v>3294690</x:v>
+        <x:v>201043</x:v>
       </x:c>
       <x:c r="G43" s="4" t="n">
-        <x:v>3696464</x:v>
+        <x:v>223635</x:v>
       </x:c>
       <x:c r="H43" s="4" t="n">
-        <x:v>3931790</x:v>
+        <x:v>234748</x:v>
       </x:c>
       <x:c r="I43" s="4" t="n">
-        <x:v>4060487</x:v>
+        <x:v>241207</x:v>
       </x:c>
       <x:c r="J43" s="4" t="n">
-        <x:v>4172779</x:v>
+        <x:v>244752</x:v>
       </x:c>
       <x:c r="K43" s="4" t="n">
-        <x:v>4419353</x:v>
+        <x:v>256135</x:v>
       </x:c>
       <x:c r="L43" s="4" t="n">
-        <x:v>4580946</x:v>
+        <x:v>263333</x:v>
       </x:c>
       <x:c r="M43" s="4" t="n">
-        <x:v>4808133</x:v>
+        <x:v>271247</x:v>
       </x:c>
       <x:c r="N43" s="4" t="n">
-        <x:v>4978112</x:v>
+        <x:v>275979</x:v>
       </x:c>
       <x:c r="O43" s="4" t="n">
-        <x:v>5206721</x:v>
+        <x:v>282070</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:15">
@@ -2278,34 +2277,34 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F44" s="4" t="n">
-        <x:v>82456012</x:v>
+        <x:v>171845</x:v>
       </x:c>
       <x:c r="G44" s="4" t="n">
-        <x:v>88784208</x:v>
+        <x:v>184971</x:v>
       </x:c>
       <x:c r="H44" s="4" t="n">
-        <x:v>89571243</x:v>
+        <x:v>186852</x:v>
       </x:c>
       <x:c r="I44" s="4" t="n">
-        <x:v>92023478</x:v>
+        <x:v>192097</x:v>
       </x:c>
       <x:c r="J44" s="4" t="n">
-        <x:v>94659302</x:v>
+        <x:v>197420</x:v>
       </x:c>
       <x:c r="K44" s="4" t="n">
-        <x:v>96790086</x:v>
+        <x:v>201138</x:v>
       </x:c>
       <x:c r="L44" s="4" t="n">
-        <x:v>99681347</x:v>
+        <x:v>205621</x:v>
       </x:c>
       <x:c r="M44" s="4" t="n">
-        <x:v>101701097</x:v>
+        <x:v>208039</x:v>
       </x:c>
       <x:c r="N44" s="4" t="n">
-        <x:v>104995230</x:v>
+        <x:v>213546</x:v>
       </x:c>
       <x:c r="O44" s="4" t="n">
-        <x:v>107648630</x:v>
+        <x:v>218268</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:15">
@@ -2313,34 +2312,34 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F45" s="4" t="n">
-        <x:v>5011533</x:v>
+        <x:v>176047</x:v>
       </x:c>
       <x:c r="G45" s="4" t="n">
-        <x:v>5447969</x:v>
+        <x:v>190429</x:v>
       </x:c>
       <x:c r="H45" s="4" t="n">
-        <x:v>5460123</x:v>
+        <x:v>191067</x:v>
       </x:c>
       <x:c r="I45" s="4" t="n">
-        <x:v>5652181</x:v>
+        <x:v>196645</x:v>
       </x:c>
       <x:c r="J45" s="4" t="n">
-        <x:v>5758459</x:v>
+        <x:v>199628</x:v>
       </x:c>
       <x:c r="K45" s="4" t="n">
-        <x:v>5903863</x:v>
+        <x:v>203666</x:v>
       </x:c>
       <x:c r="L45" s="4" t="n">
-        <x:v>6054761</x:v>
+        <x:v>207107</x:v>
       </x:c>
       <x:c r="M45" s="4" t="n">
-        <x:v>6250989</x:v>
+        <x:v>210599</x:v>
       </x:c>
       <x:c r="N45" s="4" t="n">
-        <x:v>6476620</x:v>
+        <x:v>215981</x:v>
       </x:c>
       <x:c r="O45" s="4" t="n">
-        <x:v>6732324</x:v>
+        <x:v>222006</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:15">
@@ -2348,34 +2347,34 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F46" s="4" t="n">
-        <x:v>8652815</x:v>
+        <x:v>164034</x:v>
       </x:c>
       <x:c r="G46" s="4" t="n">
-        <x:v>9263743</x:v>
+        <x:v>176177</x:v>
       </x:c>
       <x:c r="H46" s="4" t="n">
-        <x:v>9053820</x:v>
+        <x:v>173408</x:v>
       </x:c>
       <x:c r="I46" s="4" t="n">
-        <x:v>9364920</x:v>
+        <x:v>180773</x:v>
       </x:c>
       <x:c r="J46" s="4" t="n">
-        <x:v>9683779</x:v>
+        <x:v>187256</x:v>
       </x:c>
       <x:c r="K46" s="4" t="n">
-        <x:v>9784607</x:v>
+        <x:v>189448</x:v>
       </x:c>
       <x:c r="L46" s="4" t="n">
-        <x:v>10039654</x:v>
+        <x:v>193790</x:v>
       </x:c>
       <x:c r="M46" s="4" t="n">
-        <x:v>10166799</x:v>
+        <x:v>195395</x:v>
       </x:c>
       <x:c r="N46" s="4" t="n">
-        <x:v>10406016</x:v>
+        <x:v>199571</x:v>
       </x:c>
       <x:c r="O46" s="4" t="n">
-        <x:v>10584003</x:v>
+        <x:v>203449</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:15">
@@ -2383,34 +2382,34 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F47" s="4" t="n">
-        <x:v>10030854</x:v>
+        <x:v>179417</x:v>
       </x:c>
       <x:c r="G47" s="4" t="n">
-        <x:v>10880012</x:v>
+        <x:v>194120</x:v>
       </x:c>
       <x:c r="H47" s="4" t="n">
-        <x:v>10976484</x:v>
+        <x:v>195562</x:v>
       </x:c>
       <x:c r="I47" s="4" t="n">
-        <x:v>11315510</x:v>
+        <x:v>201290</x:v>
       </x:c>
       <x:c r="J47" s="4" t="n">
-        <x:v>11602970</x:v>
+        <x:v>206536</x:v>
       </x:c>
       <x:c r="K47" s="4" t="n">
-        <x:v>11884634</x:v>
+        <x:v>210844</x:v>
       </x:c>
       <x:c r="L47" s="4" t="n">
-        <x:v>12387051</x:v>
+        <x:v>217027</x:v>
       </x:c>
       <x:c r="M47" s="4" t="n">
-        <x:v>12687857</x:v>
+        <x:v>218575</x:v>
       </x:c>
       <x:c r="N47" s="4" t="n">
-        <x:v>13159147</x:v>
+        <x:v>224912</x:v>
       </x:c>
       <x:c r="O47" s="4" t="n">
-        <x:v>13518692</x:v>
+        <x:v>229668</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:15">
@@ -2418,34 +2417,34 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F48" s="4" t="n">
-        <x:v>6957616</x:v>
+        <x:v>173131</x:v>
       </x:c>
       <x:c r="G48" s="4" t="n">
-        <x:v>7514747</x:v>
+        <x:v>187246</x:v>
       </x:c>
       <x:c r="H48" s="4" t="n">
-        <x:v>7560335</x:v>
+        <x:v>189511</x:v>
       </x:c>
       <x:c r="I48" s="4" t="n">
-        <x:v>7768429</x:v>
+        <x:v>194947</x:v>
       </x:c>
       <x:c r="J48" s="4" t="n">
-        <x:v>8029267</x:v>
+        <x:v>200521</x:v>
       </x:c>
       <x:c r="K48" s="4" t="n">
-        <x:v>8226483</x:v>
+        <x:v>204557</x:v>
       </x:c>
       <x:c r="L48" s="4" t="n">
-        <x:v>8534077</x:v>
+        <x:v>211370</x:v>
       </x:c>
       <x:c r="M48" s="4" t="n">
-        <x:v>8676752</x:v>
+        <x:v>213540</x:v>
       </x:c>
       <x:c r="N48" s="4" t="n">
-        <x:v>8910408</x:v>
+        <x:v>217630</x:v>
       </x:c>
       <x:c r="O48" s="4" t="n">
-        <x:v>9105942</x:v>
+        <x:v>222710</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:15">
@@ -2453,34 +2452,34 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F49" s="4" t="n">
-        <x:v>6197945</x:v>
+        <x:v>156163</x:v>
       </x:c>
       <x:c r="G49" s="4" t="n">
-        <x:v>6510576</x:v>
+        <x:v>166511</x:v>
       </x:c>
       <x:c r="H49" s="4" t="n">
-        <x:v>6487475</x:v>
+        <x:v>168257</x:v>
       </x:c>
       <x:c r="I49" s="4" t="n">
-        <x:v>6567486</x:v>
+        <x:v>173006</x:v>
       </x:c>
       <x:c r="J49" s="4" t="n">
-        <x:v>6651226</x:v>
+        <x:v>178638</x:v>
       </x:c>
       <x:c r="K49" s="4" t="n">
-        <x:v>6743209</x:v>
+        <x:v>182877</x:v>
       </x:c>
       <x:c r="L49" s="4" t="n">
-        <x:v>6756370</x:v>
+        <x:v>184575</x:v>
       </x:c>
       <x:c r="M49" s="4" t="n">
-        <x:v>6742298</x:v>
+        <x:v>185452</x:v>
       </x:c>
       <x:c r="N49" s="4" t="n">
-        <x:v>6856959</x:v>
+        <x:v>189770</x:v>
       </x:c>
       <x:c r="O49" s="4" t="n">
-        <x:v>6934561</x:v>
+        <x:v>193056</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:15">
@@ -2488,34 +2487,34 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F50" s="4" t="n">
-        <x:v>11618177</x:v>
+        <x:v>176156</x:v>
       </x:c>
       <x:c r="G50" s="4" t="n">
-        <x:v>12502507</x:v>
+        <x:v>189326</x:v>
       </x:c>
       <x:c r="H50" s="4" t="n">
-        <x:v>12769237</x:v>
+        <x:v>192912</x:v>
       </x:c>
       <x:c r="I50" s="4" t="n">
-        <x:v>13162002</x:v>
+        <x:v>197967</x:v>
       </x:c>
       <x:c r="J50" s="4" t="n">
-        <x:v>13561878</x:v>
+        <x:v>202549</x:v>
       </x:c>
       <x:c r="K50" s="4" t="n">
-        <x:v>13866391</x:v>
+        <x:v>205699</x:v>
       </x:c>
       <x:c r="L50" s="4" t="n">
-        <x:v>14281182</x:v>
+        <x:v>210156</x:v>
       </x:c>
       <x:c r="M50" s="4" t="n">
-        <x:v>14561523</x:v>
+        <x:v>213168</x:v>
       </x:c>
       <x:c r="N50" s="4" t="n">
-        <x:v>15088238</x:v>
+        <x:v>219169</x:v>
       </x:c>
       <x:c r="O50" s="4" t="n">
-        <x:v>15481911</x:v>
+        <x:v>223879</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:15">
@@ -2523,34 +2522,34 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F51" s="4" t="n">
-        <x:v>4572577</x:v>
+        <x:v>165045</x:v>
       </x:c>
       <x:c r="G51" s="4" t="n">
-        <x:v>4930587</x:v>
+        <x:v>177967</x:v>
       </x:c>
       <x:c r="H51" s="4" t="n">
-        <x:v>4982057</x:v>
+        <x:v>180222</x:v>
       </x:c>
       <x:c r="I51" s="4" t="n">
-        <x:v>5131241</x:v>
+        <x:v>185686</x:v>
       </x:c>
       <x:c r="J51" s="4" t="n">
-        <x:v>5300698</x:v>
+        <x:v>190481</x:v>
       </x:c>
       <x:c r="K51" s="4" t="n">
-        <x:v>5450190</x:v>
+        <x:v>194726</x:v>
       </x:c>
       <x:c r="L51" s="4" t="n">
-        <x:v>5574922</x:v>
+        <x:v>198086</x:v>
       </x:c>
       <x:c r="M51" s="4" t="n">
-        <x:v>5690087</x:v>
+        <x:v>200701</x:v>
       </x:c>
       <x:c r="N51" s="4" t="n">
-        <x:v>5887440</x:v>
+        <x:v>206201</x:v>
       </x:c>
       <x:c r="O51" s="4" t="n">
-        <x:v>6033428</x:v>
+        <x:v>210297</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:15">
@@ -2558,34 +2557,34 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F52" s="4" t="n">
-        <x:v>4687550</x:v>
+        <x:v>180589</x:v>
       </x:c>
       <x:c r="G52" s="4" t="n">
-        <x:v>5142359</x:v>
+        <x:v>195884</x:v>
       </x:c>
       <x:c r="H52" s="4" t="n">
-        <x:v>5248598</x:v>
+        <x:v>197182</x:v>
       </x:c>
       <x:c r="I52" s="4" t="n">
-        <x:v>5414315</x:v>
+        <x:v>202268</x:v>
       </x:c>
       <x:c r="J52" s="4" t="n">
-        <x:v>5555503</x:v>
+        <x:v>206886</x:v>
       </x:c>
       <x:c r="K52" s="4" t="n">
-        <x:v>5704021</x:v>
+        <x:v>210613</x:v>
       </x:c>
       <x:c r="L52" s="4" t="n">
-        <x:v>5884613</x:v>
+        <x:v>214485</x:v>
       </x:c>
       <x:c r="M52" s="4" t="n">
-        <x:v>6050270</x:v>
+        <x:v>217832</x:v>
       </x:c>
       <x:c r="N52" s="4" t="n">
-        <x:v>6323710</x:v>
+        <x:v>225324</x:v>
       </x:c>
       <x:c r="O52" s="4" t="n">
-        <x:v>6490229</x:v>
+        <x:v>229385</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:15">
@@ -2593,34 +2592,34 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F53" s="4" t="n">
-        <x:v>10921255</x:v>
+        <x:v>172499</x:v>
       </x:c>
       <x:c r="G53" s="4" t="n">
-        <x:v>11671882</x:v>
+        <x:v>183665</x:v>
       </x:c>
       <x:c r="H53" s="4" t="n">
-        <x:v>11909611</x:v>
+        <x:v>186917</x:v>
       </x:c>
       <x:c r="I53" s="4" t="n">
-        <x:v>12177485</x:v>
+        <x:v>190849</x:v>
       </x:c>
       <x:c r="J53" s="4" t="n">
-        <x:v>12496822</x:v>
+        <x:v>195571</x:v>
       </x:c>
       <x:c r="K53" s="4" t="n">
-        <x:v>12775617</x:v>
+        <x:v>198836</x:v>
       </x:c>
       <x:c r="L53" s="4" t="n">
-        <x:v>13191931</x:v>
+        <x:v>202831</x:v>
       </x:c>
       <x:c r="M53" s="4" t="n">
-        <x:v>13594846</x:v>
+        <x:v>206681</x:v>
       </x:c>
       <x:c r="N53" s="4" t="n">
-        <x:v>14009806</x:v>
+        <x:v>212000</x:v>
       </x:c>
       <x:c r="O53" s="4" t="n">
-        <x:v>14390251</x:v>
+        <x:v>216819</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:15">
@@ -2628,34 +2627,34 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F54" s="4" t="n">
-        <x:v>4243380</x:v>
+        <x:v>179265</x:v>
       </x:c>
       <x:c r="G54" s="4" t="n">
-        <x:v>4537695</x:v>
+        <x:v>191053</x:v>
       </x:c>
       <x:c r="H54" s="4" t="n">
-        <x:v>4639339</x:v>
+        <x:v>195094</x:v>
       </x:c>
       <x:c r="I54" s="4" t="n">
-        <x:v>4758765</x:v>
+        <x:v>200024</x:v>
       </x:c>
       <x:c r="J54" s="4" t="n">
-        <x:v>4948194</x:v>
+        <x:v>207072</x:v>
       </x:c>
       <x:c r="K54" s="4" t="n">
-        <x:v>5049747</x:v>
+        <x:v>211127</x:v>
       </x:c>
       <x:c r="L54" s="4" t="n">
-        <x:v>5212197</x:v>
+        <x:v>216561</x:v>
       </x:c>
       <x:c r="M54" s="4" t="n">
-        <x:v>5320129</x:v>
+        <x:v>218836</x:v>
       </x:c>
       <x:c r="N54" s="4" t="n">
-        <x:v>5501134</x:v>
+        <x:v>225614</x:v>
       </x:c>
       <x:c r="O54" s="4" t="n">
-        <x:v>5641513</x:v>
+        <x:v>229600</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:15">
@@ -2663,34 +2662,34 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F55" s="4" t="n">
-        <x:v>3224210</x:v>
+        <x:v>179812</x:v>
       </x:c>
       <x:c r="G55" s="4" t="n">
-        <x:v>3497134</x:v>
+        <x:v>194772</x:v>
       </x:c>
       <x:c r="H55" s="4" t="n">
-        <x:v>3558245</x:v>
+        <x:v>198010</x:v>
       </x:c>
       <x:c r="I55" s="4" t="n">
-        <x:v>3631443</x:v>
+        <x:v>201501</x:v>
       </x:c>
       <x:c r="J55" s="4" t="n">
-        <x:v>3756342</x:v>
+        <x:v>207739</x:v>
       </x:c>
       <x:c r="K55" s="4" t="n">
-        <x:v>3910295</x:v>
+        <x:v>213864</x:v>
       </x:c>
       <x:c r="L55" s="4" t="n">
-        <x:v>4013089</x:v>
+        <x:v>217194</x:v>
       </x:c>
       <x:c r="M55" s="4" t="n">
-        <x:v>4133570</x:v>
+        <x:v>220622</x:v>
       </x:c>
       <x:c r="N55" s="4" t="n">
-        <x:v>4307662</x:v>
+        <x:v>226624</x:v>
       </x:c>
       <x:c r="O55" s="4" t="n">
-        <x:v>4460642</x:v>
+        <x:v>233946</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:15">
@@ -2698,34 +2697,34 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="F56" s="4" t="n">
-        <x:v>6338098</x:v>
+        <x:v>165494</x:v>
       </x:c>
       <x:c r="G56" s="4" t="n">
-        <x:v>6884998</x:v>
+        <x:v>179911</x:v>
       </x:c>
       <x:c r="H56" s="4" t="n">
-        <x:v>6925919</x:v>
+        <x:v>181859</x:v>
       </x:c>
       <x:c r="I56" s="4" t="n">
-        <x:v>7079703</x:v>
+        <x:v>186480</x:v>
       </x:c>
       <x:c r="J56" s="4" t="n">
-        <x:v>7314164</x:v>
+        <x:v>192716</x:v>
       </x:c>
       <x:c r="K56" s="4" t="n">
-        <x:v>7491029</x:v>
+        <x:v>196182</x:v>
       </x:c>
       <x:c r="L56" s="4" t="n">
-        <x:v>7751500</x:v>
+        <x:v>200998</x:v>
       </x:c>
       <x:c r="M56" s="4" t="n">
-        <x:v>7825975</x:v>
+        <x:v>201462</x:v>
       </x:c>
       <x:c r="N56" s="4" t="n">
-        <x:v>8068089</x:v>
+        <x:v>206726</x:v>
       </x:c>
       <x:c r="O56" s="4" t="n">
-        <x:v>8275135</x:v>
+        <x:v>212004</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:15">
@@ -2733,34 +2732,34 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F57" s="4" t="n">
-        <x:v>67363337</x:v>
+        <x:v>170558</x:v>
       </x:c>
       <x:c r="G57" s="4" t="n">
-        <x:v>72878234</x:v>
+        <x:v>183849</x:v>
       </x:c>
       <x:c r="H57" s="4" t="n">
-        <x:v>74239546</x:v>
+        <x:v>186629</x:v>
       </x:c>
       <x:c r="I57" s="4" t="n">
-        <x:v>75729222</x:v>
+        <x:v>189695</x:v>
       </x:c>
       <x:c r="J57" s="4" t="n">
-        <x:v>77936903</x:v>
+        <x:v>194355</x:v>
       </x:c>
       <x:c r="K57" s="4" t="n">
-        <x:v>79920515</x:v>
+        <x:v>198212</x:v>
       </x:c>
       <x:c r="L57" s="4" t="n">
-        <x:v>82316937</x:v>
+        <x:v>202759</x:v>
       </x:c>
       <x:c r="M57" s="4" t="n">
-        <x:v>83807272</x:v>
+        <x:v>204770</x:v>
       </x:c>
       <x:c r="N57" s="4" t="n">
-        <x:v>86596234</x:v>
+        <x:v>210127</x:v>
       </x:c>
       <x:c r="O57" s="4" t="n">
-        <x:v>89077677</x:v>
+        <x:v>214994</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:15">
@@ -2768,34 +2767,34 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F58" s="4" t="n">
-        <x:v>5677487</x:v>
+        <x:v>168406</x:v>
       </x:c>
       <x:c r="G58" s="4" t="n">
-        <x:v>6103318</x:v>
+        <x:v>181933</x:v>
       </x:c>
       <x:c r="H58" s="4" t="n">
-        <x:v>6195597</x:v>
+        <x:v>184591</x:v>
       </x:c>
       <x:c r="I58" s="4" t="n">
-        <x:v>6355494</x:v>
+        <x:v>189157</x:v>
       </x:c>
       <x:c r="J58" s="4" t="n">
-        <x:v>6447200</x:v>
+        <x:v>192580</x:v>
       </x:c>
       <x:c r="K58" s="4" t="n">
-        <x:v>6539309</x:v>
+        <x:v>194750</x:v>
       </x:c>
       <x:c r="L58" s="4" t="n">
-        <x:v>6749452</x:v>
+        <x:v>199676</x:v>
       </x:c>
       <x:c r="M58" s="4" t="n">
-        <x:v>6913724</x:v>
+        <x:v>202808</x:v>
       </x:c>
       <x:c r="N58" s="4" t="n">
-        <x:v>7138636</x:v>
+        <x:v>208781</x:v>
       </x:c>
       <x:c r="O58" s="4" t="n">
-        <x:v>7253329</x:v>
+        <x:v>212415</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:15">
@@ -2803,34 +2802,34 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F59" s="4" t="n">
-        <x:v>7041248</x:v>
+        <x:v>166716</x:v>
       </x:c>
       <x:c r="G59" s="4" t="n">
-        <x:v>7572578</x:v>
+        <x:v>179305</x:v>
       </x:c>
       <x:c r="H59" s="4" t="n">
-        <x:v>7755598</x:v>
+        <x:v>183691</x:v>
       </x:c>
       <x:c r="I59" s="4" t="n">
-        <x:v>7954685</x:v>
+        <x:v>189006</x:v>
       </x:c>
       <x:c r="J59" s="4" t="n">
-        <x:v>8086585</x:v>
+        <x:v>192790</x:v>
       </x:c>
       <x:c r="K59" s="4" t="n">
-        <x:v>8271759</x:v>
+        <x:v>197313</x:v>
       </x:c>
       <x:c r="L59" s="4" t="n">
-        <x:v>8476811</x:v>
+        <x:v>201163</x:v>
       </x:c>
       <x:c r="M59" s="4" t="n">
-        <x:v>8489342</x:v>
+        <x:v>200301</x:v>
       </x:c>
       <x:c r="N59" s="4" t="n">
-        <x:v>8916144</x:v>
+        <x:v>209324</x:v>
       </x:c>
       <x:c r="O59" s="4" t="n">
-        <x:v>9214741</x:v>
+        <x:v>214986</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:15">
@@ -2838,34 +2837,34 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F60" s="4" t="n">
-        <x:v>3328540</x:v>
+        <x:v>173181</x:v>
       </x:c>
       <x:c r="G60" s="4" t="n">
-        <x:v>3599552</x:v>
+        <x:v>186206</x:v>
       </x:c>
       <x:c r="H60" s="4" t="n">
-        <x:v>3695853</x:v>
+        <x:v>190155</x:v>
       </x:c>
       <x:c r="I60" s="4" t="n">
-        <x:v>3751931</x:v>
+        <x:v>191983</x:v>
       </x:c>
       <x:c r="J60" s="4" t="n">
-        <x:v>3864692</x:v>
+        <x:v>197804</x:v>
       </x:c>
       <x:c r="K60" s="4" t="n">
-        <x:v>4005883</x:v>
+        <x:v>204194</x:v>
       </x:c>
       <x:c r="L60" s="4" t="n">
-        <x:v>4108303</x:v>
+        <x:v>208480</x:v>
       </x:c>
       <x:c r="M60" s="4" t="n">
-        <x:v>4189927</x:v>
+        <x:v>212795</x:v>
       </x:c>
       <x:c r="N60" s="4" t="n">
-        <x:v>4266340</x:v>
+        <x:v>216753</x:v>
       </x:c>
       <x:c r="O60" s="4" t="n">
-        <x:v>4389548</x:v>
+        <x:v>222244</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:15">
@@ -2873,34 +2872,34 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F61" s="4" t="n">
-        <x:v>1776479</x:v>
+        <x:v>152868</x:v>
       </x:c>
       <x:c r="G61" s="4" t="n">
-        <x:v>1883733</x:v>
+        <x:v>163831</x:v>
       </x:c>
       <x:c r="H61" s="4" t="n">
-        <x:v>1885499</x:v>
+        <x:v>165598</x:v>
       </x:c>
       <x:c r="I61" s="4" t="n">
-        <x:v>1926819</x:v>
+        <x:v>171838</x:v>
       </x:c>
       <x:c r="J61" s="4" t="n">
-        <x:v>1929036</x:v>
+        <x:v>174085</x:v>
       </x:c>
       <x:c r="K61" s="4" t="n">
-        <x:v>1968700</x:v>
+        <x:v>178437</x:v>
       </x:c>
       <x:c r="L61" s="4" t="n">
-        <x:v>1969966</x:v>
+        <x:v>179988</x:v>
       </x:c>
       <x:c r="M61" s="4" t="n">
-        <x:v>2015691</x:v>
+        <x:v>183295</x:v>
       </x:c>
       <x:c r="N61" s="4" t="n">
-        <x:v>2075432</x:v>
+        <x:v>187483</x:v>
       </x:c>
       <x:c r="O61" s="4" t="n">
-        <x:v>2086235</x:v>
+        <x:v>189623</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:15">
@@ -2908,34 +2907,34 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F62" s="4" t="n">
-        <x:v>5474814</x:v>
+        <x:v>181640</x:v>
       </x:c>
       <x:c r="G62" s="4" t="n">
-        <x:v>5981916</x:v>
+        <x:v>197527</x:v>
       </x:c>
       <x:c r="H62" s="4" t="n">
-        <x:v>5987463</x:v>
+        <x:v>197333</x:v>
       </x:c>
       <x:c r="I62" s="4" t="n">
-        <x:v>6246538</x:v>
+        <x:v>204818</x:v>
       </x:c>
       <x:c r="J62" s="4" t="n">
-        <x:v>6423602</x:v>
+        <x:v>209102</x:v>
       </x:c>
       <x:c r="K62" s="4" t="n">
-        <x:v>6572483</x:v>
+        <x:v>212585</x:v>
       </x:c>
       <x:c r="L62" s="4" t="n">
-        <x:v>6843652</x:v>
+        <x:v>221205</x:v>
       </x:c>
       <x:c r="M62" s="4" t="n">
-        <x:v>6951989</x:v>
+        <x:v>221910</x:v>
       </x:c>
       <x:c r="N62" s="4" t="n">
-        <x:v>7334635</x:v>
+        <x:v>232668</x:v>
       </x:c>
       <x:c r="O62" s="4" t="n">
-        <x:v>7492698</x:v>
+        <x:v>235139</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:15">
@@ -2943,34 +2942,34 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F63" s="4" t="n">
-        <x:v>3891008</x:v>
+        <x:v>163963</x:v>
       </x:c>
       <x:c r="G63" s="4" t="n">
-        <x:v>4247776</x:v>
+        <x:v>178366</x:v>
       </x:c>
       <x:c r="H63" s="4" t="n">
-        <x:v>4382879</x:v>
+        <x:v>184924</x:v>
       </x:c>
       <x:c r="I63" s="4" t="n">
-        <x:v>4463958</x:v>
+        <x:v>188012</x:v>
       </x:c>
       <x:c r="J63" s="4" t="n">
-        <x:v>4583958</x:v>
+        <x:v>193530</x:v>
       </x:c>
       <x:c r="K63" s="4" t="n">
-        <x:v>4647127</x:v>
+        <x:v>196073</x:v>
       </x:c>
       <x:c r="L63" s="4" t="n">
-        <x:v>4782980</x:v>
+        <x:v>199840</x:v>
       </x:c>
       <x:c r="M63" s="4" t="n">
-        <x:v>4872604</x:v>
+        <x:v>201672</x:v>
       </x:c>
       <x:c r="N63" s="4" t="n">
-        <x:v>5074051</x:v>
+        <x:v>208757</x:v>
       </x:c>
       <x:c r="O63" s="4" t="n">
-        <x:v>5257884</x:v>
+        <x:v>214266</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:15">
@@ -2978,34 +2977,34 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F64" s="4" t="n">
-        <x:v>4431027</x:v>
+        <x:v>171287</x:v>
       </x:c>
       <x:c r="G64" s="4" t="n">
-        <x:v>4720033</x:v>
+        <x:v>182827</x:v>
       </x:c>
       <x:c r="H64" s="4" t="n">
-        <x:v>4809035</x:v>
+        <x:v>185598</x:v>
       </x:c>
       <x:c r="I64" s="4" t="n">
-        <x:v>4901964</x:v>
+        <x:v>189331</x:v>
       </x:c>
       <x:c r="J64" s="4" t="n">
-        <x:v>4992314</x:v>
+        <x:v>192813</x:v>
       </x:c>
       <x:c r="K64" s="4" t="n">
-        <x:v>5155043</x:v>
+        <x:v>197224</x:v>
       </x:c>
       <x:c r="L64" s="4" t="n">
-        <x:v>5288854</x:v>
+        <x:v>200214</x:v>
       </x:c>
       <x:c r="M64" s="4" t="n">
-        <x:v>5402879</x:v>
+        <x:v>202796</x:v>
       </x:c>
       <x:c r="N64" s="4" t="n">
-        <x:v>5547347</x:v>
+        <x:v>208179</x:v>
       </x:c>
       <x:c r="O64" s="4" t="n">
-        <x:v>5753621</x:v>
+        <x:v>215483</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:15">
@@ -3013,34 +3012,34 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F65" s="4" t="n">
-        <x:v>26338491</x:v>
+        <x:v>170798</x:v>
       </x:c>
       <x:c r="G65" s="4" t="n">
-        <x:v>28738339</x:v>
+        <x:v>184436</x:v>
       </x:c>
       <x:c r="H65" s="4" t="n">
-        <x:v>29390489</x:v>
+        <x:v>186960</x:v>
       </x:c>
       <x:c r="I65" s="4" t="n">
-        <x:v>29756317</x:v>
+        <x:v>187409</x:v>
       </x:c>
       <x:c r="J65" s="4" t="n">
-        <x:v>31065960</x:v>
+        <x:v>192896</x:v>
       </x:c>
       <x:c r="K65" s="4" t="n">
-        <x:v>31938440</x:v>
+        <x:v>196374</x:v>
       </x:c>
       <x:c r="L65" s="4" t="n">
-        <x:v>33035170</x:v>
+        <x:v>201180</x:v>
       </x:c>
       <x:c r="M65" s="4" t="n">
-        <x:v>33662923</x:v>
+        <x:v>203000</x:v>
       </x:c>
       <x:c r="N65" s="4" t="n">
-        <x:v>34639979</x:v>
+        <x:v>206649</x:v>
       </x:c>
       <x:c r="O65" s="4" t="n">
-        <x:v>35856209</x:v>
+        <x:v>211967</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:15">
@@ -3048,34 +3047,34 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F66" s="4" t="n">
-        <x:v>8455659</x:v>
+        <x:v>174462</x:v>
       </x:c>
       <x:c r="G66" s="4" t="n">
-        <x:v>9024648</x:v>
+        <x:v>186850</x:v>
       </x:c>
       <x:c r="H66" s="4" t="n">
-        <x:v>9129136</x:v>
+        <x:v>189217</x:v>
       </x:c>
       <x:c r="I66" s="4" t="n">
-        <x:v>9348687</x:v>
+        <x:v>194073</x:v>
       </x:c>
       <x:c r="J66" s="4" t="n">
-        <x:v>9530942</x:v>
+        <x:v>198528</x:v>
       </x:c>
       <x:c r="K66" s="4" t="n">
-        <x:v>9780973</x:v>
+        <x:v>203220</x:v>
       </x:c>
       <x:c r="L66" s="4" t="n">
-        <x:v>10019847</x:v>
+        <x:v>207099</x:v>
       </x:c>
       <x:c r="M66" s="4" t="n">
-        <x:v>10245180</x:v>
+        <x:v>210309</x:v>
       </x:c>
       <x:c r="N66" s="4" t="n">
-        <x:v>10531820</x:v>
+        <x:v>214742</x:v>
       </x:c>
       <x:c r="O66" s="4" t="n">
-        <x:v>10700196</x:v>
+        <x:v>218492</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:15">
@@ -3083,34 +3082,34 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F67" s="4" t="n">
-        <x:v>948585</x:v>
+        <x:v>164857</x:v>
       </x:c>
       <x:c r="G67" s="4" t="n">
-        <x:v>1006341</x:v>
+        <x:v>174682</x:v>
       </x:c>
       <x:c r="H67" s="4" t="n">
-        <x:v>1007995</x:v>
+        <x:v>174333</x:v>
       </x:c>
       <x:c r="I67" s="4" t="n">
-        <x:v>1022829</x:v>
+        <x:v>179633</x:v>
       </x:c>
       <x:c r="J67" s="4" t="n">
-        <x:v>1012613</x:v>
+        <x:v>180695</x:v>
       </x:c>
       <x:c r="K67" s="4" t="n">
-        <x:v>1040799</x:v>
+        <x:v>188210</x:v>
       </x:c>
       <x:c r="L67" s="4" t="n">
-        <x:v>1041901</x:v>
+        <x:v>188887</x:v>
       </x:c>
       <x:c r="M67" s="4" t="n">
-        <x:v>1063012</x:v>
+        <x:v>195335</x:v>
       </x:c>
       <x:c r="N67" s="4" t="n">
-        <x:v>1071851</x:v>
+        <x:v>197576</x:v>
       </x:c>
       <x:c r="O67" s="4" t="n">
-        <x:v>1073217</x:v>
+        <x:v>201430</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:15">
@@ -3118,34 +3117,34 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F68" s="4" t="n">
-        <x:v>99128278</x:v>
+        <x:v>172131</x:v>
       </x:c>
       <x:c r="G68" s="4" t="n">
-        <x:v>108524623</x:v>
+        <x:v>187945</x:v>
       </x:c>
       <x:c r="H68" s="4" t="n">
-        <x:v>110383389</x:v>
+        <x:v>190478</x:v>
       </x:c>
       <x:c r="I68" s="4" t="n">
-        <x:v>113578794</x:v>
+        <x:v>195548</x:v>
       </x:c>
       <x:c r="J68" s="4" t="n">
-        <x:v>116701101</x:v>
+        <x:v>200303</x:v>
       </x:c>
       <x:c r="K68" s="4" t="n">
-        <x:v>118923774</x:v>
+        <x:v>203523</x:v>
       </x:c>
       <x:c r="L68" s="4" t="n">
-        <x:v>122427515</x:v>
+        <x:v>208379</x:v>
       </x:c>
       <x:c r="M68" s="4" t="n">
-        <x:v>125024791</x:v>
+        <x:v>211571</x:v>
       </x:c>
       <x:c r="N68" s="4" t="n">
-        <x:v>130140608</x:v>
+        <x:v>219085</x:v>
       </x:c>
       <x:c r="O68" s="4" t="n">
-        <x:v>133207556</x:v>
+        <x:v>223593</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:15">
@@ -3153,34 +3152,34 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F69" s="4" t="n">
-        <x:v>3624592</x:v>
+        <x:v>173384</x:v>
       </x:c>
       <x:c r="G69" s="4" t="n">
-        <x:v>3991243</x:v>
+        <x:v>190905</x:v>
       </x:c>
       <x:c r="H69" s="4" t="n">
-        <x:v>4107837</x:v>
+        <x:v>195230</x:v>
       </x:c>
       <x:c r="I69" s="4" t="n">
-        <x:v>4267820</x:v>
+        <x:v>201798</x:v>
       </x:c>
       <x:c r="J69" s="4" t="n">
-        <x:v>4406736</x:v>
+        <x:v>208051</x:v>
       </x:c>
       <x:c r="K69" s="4" t="n">
-        <x:v>4472466</x:v>
+        <x:v>210271</x:v>
       </x:c>
       <x:c r="L69" s="4" t="n">
-        <x:v>4533965</x:v>
+        <x:v>212304</x:v>
       </x:c>
       <x:c r="M69" s="4" t="n">
-        <x:v>4629371</x:v>
+        <x:v>215983</x:v>
       </x:c>
       <x:c r="N69" s="4" t="n">
-        <x:v>4901471</x:v>
+        <x:v>227700</x:v>
       </x:c>
       <x:c r="O69" s="4" t="n">
-        <x:v>5018071</x:v>
+        <x:v>231771</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:15">
@@ -3188,34 +3187,34 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F70" s="4" t="n">
-        <x:v>16419460</x:v>
+        <x:v>175733</x:v>
       </x:c>
       <x:c r="G70" s="4" t="n">
-        <x:v>17805343</x:v>
+        <x:v>189600</x:v>
       </x:c>
       <x:c r="H70" s="4" t="n">
-        <x:v>18144259</x:v>
+        <x:v>192786</x:v>
       </x:c>
       <x:c r="I70" s="4" t="n">
-        <x:v>18689444</x:v>
+        <x:v>198130</x:v>
       </x:c>
       <x:c r="J70" s="4" t="n">
-        <x:v>19182273</x:v>
+        <x:v>203075</x:v>
       </x:c>
       <x:c r="K70" s="4" t="n">
-        <x:v>19663111</x:v>
+        <x:v>207362</x:v>
       </x:c>
       <x:c r="L70" s="4" t="n">
-        <x:v>20020052</x:v>
+        <x:v>210319</x:v>
       </x:c>
       <x:c r="M70" s="4" t="n">
-        <x:v>20345951</x:v>
+        <x:v>213261</x:v>
       </x:c>
       <x:c r="N70" s="4" t="n">
-        <x:v>20988787</x:v>
+        <x:v>219429</x:v>
       </x:c>
       <x:c r="O70" s="4" t="n">
-        <x:v>21453134</x:v>
+        <x:v>224598</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:15">
@@ -3223,34 +3222,34 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F71" s="4" t="n">
-        <x:v>527809</x:v>
+        <x:v>197164</x:v>
       </x:c>
       <x:c r="G71" s="4" t="n">
-        <x:v>565188</x:v>
+        <x:v>210107</x:v>
       </x:c>
       <x:c r="H71" s="4" t="n">
-        <x:v>587231</x:v>
+        <x:v>215419</x:v>
       </x:c>
       <x:c r="I71" s="4" t="n">
-        <x:v>601618</x:v>
+        <x:v>220292</x:v>
       </x:c>
       <x:c r="J71" s="4" t="n">
-        <x:v>620496</x:v>
+        <x:v>226293</x:v>
       </x:c>
       <x:c r="K71" s="4" t="n">
-        <x:v>630897</x:v>
+        <x:v>230507</x:v>
       </x:c>
       <x:c r="L71" s="4" t="n">
-        <x:v>646669</x:v>
+        <x:v>233539</x:v>
       </x:c>
       <x:c r="M71" s="4" t="n">
-        <x:v>655790</x:v>
+        <x:v>233960</x:v>
       </x:c>
       <x:c r="N71" s="4" t="n">
-        <x:v>689229</x:v>
+        <x:v>240905</x:v>
       </x:c>
       <x:c r="O71" s="4" t="n">
-        <x:v>705700</x:v>
+        <x:v>244102</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:15">
@@ -3258,34 +3257,34 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F72" s="4" t="n">
-        <x:v>7207534</x:v>
+        <x:v>178272</x:v>
       </x:c>
       <x:c r="G72" s="4" t="n">
-        <x:v>7812181</x:v>
+        <x:v>191988</x:v>
       </x:c>
       <x:c r="H72" s="4" t="n">
-        <x:v>7819904</x:v>
+        <x:v>191378</x:v>
       </x:c>
       <x:c r="I72" s="4" t="n">
-        <x:v>8021809</x:v>
+        <x:v>195292</x:v>
       </x:c>
       <x:c r="J72" s="4" t="n">
-        <x:v>8201972</x:v>
+        <x:v>199174</x:v>
       </x:c>
       <x:c r="K72" s="4" t="n">
-        <x:v>8411514</x:v>
+        <x:v>203698</x:v>
       </x:c>
       <x:c r="L72" s="4" t="n">
-        <x:v>8673152</x:v>
+        <x:v>209082</x:v>
       </x:c>
       <x:c r="M72" s="4" t="n">
-        <x:v>8991585</x:v>
+        <x:v>215141</x:v>
       </x:c>
       <x:c r="N72" s="4" t="n">
-        <x:v>9203911</x:v>
+        <x:v>217669</x:v>
       </x:c>
       <x:c r="O72" s="4" t="n">
-        <x:v>9452818</x:v>
+        <x:v>222200</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:15">
@@ -3293,34 +3292,34 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F73" s="4" t="n">
-        <x:v>7794137</x:v>
+        <x:v>170670</x:v>
       </x:c>
       <x:c r="G73" s="4" t="n">
-        <x:v>8284037</x:v>
+        <x:v>181337</x:v>
       </x:c>
       <x:c r="H73" s="4" t="n">
-        <x:v>8360975</x:v>
+        <x:v>182598</x:v>
       </x:c>
       <x:c r="I73" s="4" t="n">
-        <x:v>8495862</x:v>
+        <x:v>185536</x:v>
       </x:c>
       <x:c r="J73" s="4" t="n">
-        <x:v>8742634</x:v>
+        <x:v>190219</x:v>
       </x:c>
       <x:c r="K73" s="4" t="n">
-        <x:v>8897638</x:v>
+        <x:v>193583</x:v>
       </x:c>
       <x:c r="L73" s="4" t="n">
-        <x:v>9132800</x:v>
+        <x:v>198173</x:v>
       </x:c>
       <x:c r="M73" s="4" t="n">
-        <x:v>9269337</x:v>
+        <x:v>200526</x:v>
       </x:c>
       <x:c r="N73" s="4" t="n">
-        <x:v>9629124</x:v>
+        <x:v>208067</x:v>
       </x:c>
       <x:c r="O73" s="4" t="n">
-        <x:v>9838579</x:v>
+        <x:v>212391</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:15">
@@ -3328,34 +3327,34 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F74" s="4" t="n">
-        <x:v>12765403</x:v>
+        <x:v>179153</x:v>
       </x:c>
       <x:c r="G74" s="4" t="n">
-        <x:v>13940518</x:v>
+        <x:v>195240</x:v>
       </x:c>
       <x:c r="H74" s="4" t="n">
-        <x:v>14245606</x:v>
+        <x:v>198340</x:v>
       </x:c>
       <x:c r="I74" s="4" t="n">
-        <x:v>14640032</x:v>
+        <x:v>202911</x:v>
       </x:c>
       <x:c r="J74" s="4" t="n">
-        <x:v>14973696</x:v>
+        <x:v>206286</x:v>
       </x:c>
       <x:c r="K74" s="4" t="n">
-        <x:v>15422385</x:v>
+        <x:v>211240</x:v>
       </x:c>
       <x:c r="L74" s="4" t="n">
-        <x:v>15974464</x:v>
+        <x:v>216806</x:v>
       </x:c>
       <x:c r="M74" s="4" t="n">
-        <x:v>16414579</x:v>
+        <x:v>220481</x:v>
       </x:c>
       <x:c r="N74" s="4" t="n">
-        <x:v>17006766</x:v>
+        <x:v>227236</x:v>
       </x:c>
       <x:c r="O74" s="4" t="n">
-        <x:v>17595539</x:v>
+        <x:v>232918</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:15">
@@ -3363,34 +3362,34 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="F75" s="4" t="n">
-        <x:v>9714231</x:v>
+        <x:v>156977</x:v>
       </x:c>
       <x:c r="G75" s="4" t="n">
-        <x:v>11308709</x:v>
+        <x:v>182900</x:v>
       </x:c>
       <x:c r="H75" s="4" t="n">
-        <x:v>11422350</x:v>
+        <x:v>184455</x:v>
       </x:c>
       <x:c r="I75" s="4" t="n">
-        <x:v>11816104</x:v>
+        <x:v>190804</x:v>
       </x:c>
       <x:c r="J75" s="4" t="n">
-        <x:v>11901534</x:v>
+        <x:v>192395</x:v>
       </x:c>
       <x:c r="K75" s="4" t="n">
-        <x:v>12172292</x:v>
+        <x:v>197407</x:v>
       </x:c>
       <x:c r="L75" s="4" t="n">
-        <x:v>12354218</x:v>
+        <x:v>199900</x:v>
       </x:c>
       <x:c r="M75" s="4" t="n">
-        <x:v>12605685</x:v>
+        <x:v>203449</x:v>
       </x:c>
       <x:c r="N75" s="4" t="n">
-        <x:v>13062801</x:v>
+        <x:v>210483</x:v>
       </x:c>
       <x:c r="O75" s="4" t="n">
-        <x:v>13399429</x:v>
+        <x:v>215616</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:15">
@@ -3398,34 +3397,34 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="F76" s="4" t="n">
-        <x:v>5102896</x:v>
+        <x:v>157264</x:v>
       </x:c>
       <x:c r="G76" s="4" t="n">
-        <x:v>5492061</x:v>
+        <x:v>169980</x:v>
       </x:c>
       <x:c r="H76" s="4" t="n">
-        <x:v>5592751</x:v>
+        <x:v>173996</x:v>
       </x:c>
       <x:c r="I76" s="4" t="n">
-        <x:v>5612835</x:v>
+        <x:v>175742</x:v>
       </x:c>
       <x:c r="J76" s="4" t="n">
-        <x:v>5797782</x:v>
+        <x:v>182838</x:v>
       </x:c>
       <x:c r="K76" s="4" t="n">
-        <x:v>5819641</x:v>
+        <x:v>184557</x:v>
       </x:c>
       <x:c r="L76" s="4" t="n">
-        <x:v>5957381</x:v>
+        <x:v>189550</x:v>
       </x:c>
       <x:c r="M76" s="4" t="n">
-        <x:v>6050074</x:v>
+        <x:v>192157</x:v>
       </x:c>
       <x:c r="N76" s="4" t="n">
-        <x:v>6399573</x:v>
+        <x:v>203148</x:v>
       </x:c>
       <x:c r="O76" s="4" t="n">
-        <x:v>6421604</x:v>
+        <x:v>204836</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:15">
@@ -3433,34 +3432,34 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F77" s="4" t="n">
-        <x:v>6787603</x:v>
+        <x:v>168515</x:v>
       </x:c>
       <x:c r="G77" s="4" t="n">
-        <x:v>7340348</x:v>
+        <x:v>181714</x:v>
       </x:c>
       <x:c r="H77" s="4" t="n">
-        <x:v>7601747</x:v>
+        <x:v>188050</x:v>
       </x:c>
       <x:c r="I77" s="4" t="n">
-        <x:v>7852259</x:v>
+        <x:v>194046</x:v>
       </x:c>
       <x:c r="J77" s="4" t="n">
-        <x:v>8283709</x:v>
+        <x:v>203952</x:v>
       </x:c>
       <x:c r="K77" s="4" t="n">
-        <x:v>8226632</x:v>
+        <x:v>201421</x:v>
       </x:c>
       <x:c r="L77" s="4" t="n">
-        <x:v>8421451</x:v>
+        <x:v>205141</x:v>
       </x:c>
       <x:c r="M77" s="4" t="n">
-        <x:v>8540038</x:v>
+        <x:v>207071</x:v>
       </x:c>
       <x:c r="N77" s="4" t="n">
-        <x:v>8898674</x:v>
+        <x:v>215888</x:v>
       </x:c>
       <x:c r="O77" s="4" t="n">
-        <x:v>9008727</x:v>
+        <x:v>218754</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:15">
@@ -3468,34 +3467,34 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="F78" s="4" t="n">
-        <x:v>5568265</x:v>
+        <x:v>164464</x:v>
       </x:c>
       <x:c r="G78" s="4" t="n">
-        <x:v>6098476</x:v>
+        <x:v>180183</x:v>
       </x:c>
       <x:c r="H78" s="4" t="n">
-        <x:v>6186313</x:v>
+        <x:v>181892</x:v>
       </x:c>
       <x:c r="I78" s="4" t="n">
-        <x:v>6472017</x:v>
+        <x:v>190281</x:v>
       </x:c>
       <x:c r="J78" s="4" t="n">
-        <x:v>6735494</x:v>
+        <x:v>197106</x:v>
       </x:c>
       <x:c r="K78" s="4" t="n">
-        <x:v>6736691</x:v>
+        <x:v>197406</x:v>
       </x:c>
       <x:c r="L78" s="4" t="n">
-        <x:v>6994883</x:v>
+        <x:v>203630</x:v>
       </x:c>
       <x:c r="M78" s="4" t="n">
-        <x:v>7032265</x:v>
+        <x:v>203869</x:v>
       </x:c>
       <x:c r="N78" s="4" t="n">
-        <x:v>7425914</x:v>
+        <x:v>214071</x:v>
       </x:c>
       <x:c r="O78" s="4" t="n">
-        <x:v>7596432</x:v>
+        <x:v>218332</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:15">
@@ -3503,34 +3502,34 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F79" s="4" t="n">
-        <x:v>15507862</x:v>
+        <x:v>183456</x:v>
       </x:c>
       <x:c r="G79" s="4" t="n">
-        <x:v>17101669</x:v>
+        <x:v>200481</x:v>
       </x:c>
       <x:c r="H79" s="4" t="n">
-        <x:v>17407766</x:v>
+        <x:v>201780</x:v>
       </x:c>
       <x:c r="I79" s="4" t="n">
-        <x:v>18028754</x:v>
+        <x:v>207287</x:v>
       </x:c>
       <x:c r="J79" s="4" t="n">
-        <x:v>18623651</x:v>
+        <x:v>211774</x:v>
       </x:c>
       <x:c r="K79" s="4" t="n">
-        <x:v>19126817</x:v>
+        <x:v>215397</x:v>
       </x:c>
       <x:c r="L79" s="4" t="n">
-        <x:v>20110945</x:v>
+        <x:v>223679</x:v>
       </x:c>
       <x:c r="M79" s="4" t="n">
-        <x:v>20679791</x:v>
+        <x:v>227036</x:v>
       </x:c>
       <x:c r="N79" s="4" t="n">
-        <x:v>21677706</x:v>
+        <x:v>234900</x:v>
       </x:c>
       <x:c r="O79" s="4" t="n">
-        <x:v>22305302</x:v>
+        <x:v>239626</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:15">
@@ -3538,34 +3537,34 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="F80" s="4" t="n">
-        <x:v>8108485</x:v>
+        <x:v>167106</x:v>
       </x:c>
       <x:c r="G80" s="4" t="n">
-        <x:v>8784849</x:v>
+        <x:v>181280</x:v>
       </x:c>
       <x:c r="H80" s="4" t="n">
-        <x:v>8906649</x:v>
+        <x:v>184117</x:v>
       </x:c>
       <x:c r="I80" s="4" t="n">
-        <x:v>9080241</x:v>
+        <x:v>188090</x:v>
       </x:c>
       <x:c r="J80" s="4" t="n">
-        <x:v>9231123</x:v>
+        <x:v>191465</x:v>
       </x:c>
       <x:c r="K80" s="4" t="n">
-        <x:v>9343690</x:v>
+        <x:v>193579</x:v>
       </x:c>
       <x:c r="L80" s="4" t="n">
-        <x:v>9607536</x:v>
+        <x:v>198437</x:v>
       </x:c>
       <x:c r="M80" s="4" t="n">
-        <x:v>9810325</x:v>
+        <x:v>202029</x:v>
       </x:c>
       <x:c r="N80" s="4" t="n">
-        <x:v>10256653</x:v>
+        <x:v>210096</x:v>
       </x:c>
       <x:c r="O80" s="4" t="n">
-        <x:v>10412220</x:v>
+        <x:v>213650</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:15">
@@ -3573,34 +3572,34 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F81" s="4" t="n">
-        <x:v>118625078</x:v>
+        <x:v>178591</x:v>
       </x:c>
       <x:c r="G81" s="4" t="n">
-        <x:v>129398611</x:v>
+        <x:v>192682</x:v>
       </x:c>
       <x:c r="H81" s="4" t="n">
-        <x:v>132914296</x:v>
+        <x:v>195999</x:v>
       </x:c>
       <x:c r="I81" s="4" t="n">
-        <x:v>137824679</x:v>
+        <x:v>201269</x:v>
       </x:c>
       <x:c r="J81" s="4" t="n">
-        <x:v>143365035</x:v>
+        <x:v>207182</x:v>
       </x:c>
       <x:c r="K81" s="4" t="n">
-        <x:v>146391684</x:v>
+        <x:v>209941</x:v>
       </x:c>
       <x:c r="L81" s="4" t="n">
-        <x:v>153320642</x:v>
+        <x:v>217729</x:v>
       </x:c>
       <x:c r="M81" s="4" t="n">
-        <x:v>157677951</x:v>
+        <x:v>221133</x:v>
       </x:c>
       <x:c r="N81" s="4" t="n">
-        <x:v>164245346</x:v>
+        <x:v>227628</x:v>
       </x:c>
       <x:c r="O81" s="4" t="n">
-        <x:v>170245057</x:v>
+        <x:v>233528</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:15">
@@ -3608,34 +3607,34 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="F82" s="4" t="n">
-        <x:v>6592980</x:v>
+        <x:v>183567</x:v>
       </x:c>
       <x:c r="G82" s="4" t="n">
-        <x:v>7279401</x:v>
+        <x:v>200651</x:v>
       </x:c>
       <x:c r="H82" s="4" t="n">
-        <x:v>7484143</x:v>
+        <x:v>204412</x:v>
       </x:c>
       <x:c r="I82" s="4" t="n">
-        <x:v>7730062</x:v>
+        <x:v>210245</x:v>
       </x:c>
       <x:c r="J82" s="4" t="n">
-        <x:v>7987207</x:v>
+        <x:v>216338</x:v>
       </x:c>
       <x:c r="K82" s="4" t="n">
-        <x:v>8231627</x:v>
+        <x:v>220545</x:v>
       </x:c>
       <x:c r="L82" s="4" t="n">
-        <x:v>8424502</x:v>
+        <x:v>224587</x:v>
       </x:c>
       <x:c r="M82" s="4" t="n">
-        <x:v>8680755</x:v>
+        <x:v>229808</x:v>
       </x:c>
       <x:c r="N82" s="4" t="n">
-        <x:v>9073209</x:v>
+        <x:v>237631</x:v>
       </x:c>
       <x:c r="O82" s="4" t="n">
-        <x:v>9341624</x:v>
+        <x:v>243703</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:15">
@@ -3643,34 +3642,34 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F83" s="4" t="n">
-        <x:v>6477533</x:v>
+        <x:v>180127</x:v>
       </x:c>
       <x:c r="G83" s="4" t="n">
-        <x:v>7004810</x:v>
+        <x:v>193808</x:v>
       </x:c>
       <x:c r="H83" s="4" t="n">
-        <x:v>7076781</x:v>
+        <x:v>194684</x:v>
       </x:c>
       <x:c r="I83" s="4" t="n">
-        <x:v>7331222</x:v>
+        <x:v>201335</x:v>
       </x:c>
       <x:c r="J83" s="4" t="n">
-        <x:v>7556684</x:v>
+        <x:v>206998</x:v>
       </x:c>
       <x:c r="K83" s="4" t="n">
-        <x:v>7806947</x:v>
+        <x:v>211880</x:v>
       </x:c>
       <x:c r="L83" s="4" t="n">
-        <x:v>8083232</x:v>
+        <x:v>218083</x:v>
       </x:c>
       <x:c r="M83" s="4" t="n">
-        <x:v>8187309</x:v>
+        <x:v>218894</x:v>
       </x:c>
       <x:c r="N83" s="4" t="n">
-        <x:v>8497600</x:v>
+        <x:v>225664</x:v>
       </x:c>
       <x:c r="O83" s="4" t="n">
-        <x:v>8871950</x:v>
+        <x:v>233866</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:15">
@@ -3678,34 +3677,34 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F84" s="4" t="n">
-        <x:v>11432662</x:v>
+        <x:v>175684</x:v>
       </x:c>
       <x:c r="G84" s="4" t="n">
-        <x:v>12432695</x:v>
+        <x:v>188952</x:v>
       </x:c>
       <x:c r="H84" s="4" t="n">
-        <x:v>12875751</x:v>
+        <x:v>193460</x:v>
       </x:c>
       <x:c r="I84" s="4" t="n">
-        <x:v>13417669</x:v>
+        <x:v>198571</x:v>
       </x:c>
       <x:c r="J84" s="4" t="n">
-        <x:v>13959677</x:v>
+        <x:v>204107</x:v>
       </x:c>
       <x:c r="K84" s="4" t="n">
-        <x:v>14411462</x:v>
+        <x:v>208807</x:v>
       </x:c>
       <x:c r="L84" s="4" t="n">
-        <x:v>14854683</x:v>
+        <x:v>212286</x:v>
       </x:c>
       <x:c r="M84" s="4" t="n">
-        <x:v>15404480</x:v>
+        <x:v>216516</x:v>
       </x:c>
       <x:c r="N84" s="4" t="n">
-        <x:v>16034549</x:v>
+        <x:v>223298</x:v>
       </x:c>
       <x:c r="O84" s="4" t="n">
-        <x:v>16697698</x:v>
+        <x:v>230081</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:15">
@@ -3713,34 +3712,34 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F85" s="4" t="n">
-        <x:v>5137677</x:v>
+        <x:v>162946</x:v>
       </x:c>
       <x:c r="G85" s="4" t="n">
-        <x:v>5564897</x:v>
+        <x:v>176149</x:v>
       </x:c>
       <x:c r="H85" s="4" t="n">
-        <x:v>5691160</x:v>
+        <x:v>180328</x:v>
       </x:c>
       <x:c r="I85" s="4" t="n">
-        <x:v>5831746</x:v>
+        <x:v>183718</x:v>
       </x:c>
       <x:c r="J85" s="4" t="n">
-        <x:v>5964465</x:v>
+        <x:v>187709</x:v>
       </x:c>
       <x:c r="K85" s="4" t="n">
-        <x:v>6097004</x:v>
+        <x:v>191447</x:v>
       </x:c>
       <x:c r="L85" s="4" t="n">
-        <x:v>6262048</x:v>
+        <x:v>195317</x:v>
       </x:c>
       <x:c r="M85" s="4" t="n">
-        <x:v>6327430</x:v>
+        <x:v>197067</x:v>
       </x:c>
       <x:c r="N85" s="4" t="n">
-        <x:v>6528188</x:v>
+        <x:v>203237</x:v>
       </x:c>
       <x:c r="O85" s="4" t="n">
-        <x:v>6623915</x:v>
+        <x:v>207855</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:15">
@@ -3748,34 +3747,34 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F86" s="4" t="n">
-        <x:v>3208245</x:v>
+        <x:v>185073</x:v>
       </x:c>
       <x:c r="G86" s="4" t="n">
-        <x:v>3512451</x:v>
+        <x:v>200585</x:v>
       </x:c>
       <x:c r="H86" s="4" t="n">
-        <x:v>3570532</x:v>
+        <x:v>204311</x:v>
       </x:c>
       <x:c r="I86" s="4" t="n">
-        <x:v>3702922</x:v>
+        <x:v>210477</x:v>
       </x:c>
       <x:c r="J86" s="4" t="n">
-        <x:v>3810637</x:v>
+        <x:v>215912</x:v>
       </x:c>
       <x:c r="K86" s="4" t="n">
-        <x:v>3927000</x:v>
+        <x:v>220531</x:v>
       </x:c>
       <x:c r="L86" s="4" t="n">
-        <x:v>4011996</x:v>
+        <x:v>222963</x:v>
       </x:c>
       <x:c r="M86" s="4" t="n">
-        <x:v>4144985</x:v>
+        <x:v>227984</x:v>
       </x:c>
       <x:c r="N86" s="4" t="n">
-        <x:v>4319568</x:v>
+        <x:v>233238</x:v>
       </x:c>
       <x:c r="O86" s="4" t="n">
-        <x:v>4434317</x:v>
+        <x:v>238007</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:15">
@@ -3783,34 +3782,34 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="F87" s="4" t="n">
-        <x:v>13070167</x:v>
+        <x:v>170049</x:v>
       </x:c>
       <x:c r="G87" s="4" t="n">
-        <x:v>14151470</x:v>
+        <x:v>182432</x:v>
       </x:c>
       <x:c r="H87" s="4" t="n">
-        <x:v>14501715</x:v>
+        <x:v>185608</x:v>
       </x:c>
       <x:c r="I87" s="4" t="n">
-        <x:v>14882549</x:v>
+        <x:v>189553</x:v>
       </x:c>
       <x:c r="J87" s="4" t="n">
-        <x:v>15277635</x:v>
+        <x:v>193219</x:v>
       </x:c>
       <x:c r="K87" s="4" t="n">
-        <x:v>15614813</x:v>
+        <x:v>196159</x:v>
       </x:c>
       <x:c r="L87" s="4" t="n">
-        <x:v>16122450</x:v>
+        <x:v>201261</x:v>
       </x:c>
       <x:c r="M87" s="4" t="n">
-        <x:v>16529043</x:v>
+        <x:v>204527</x:v>
       </x:c>
       <x:c r="N87" s="4" t="n">
-        <x:v>17001272</x:v>
+        <x:v>209411</x:v>
       </x:c>
       <x:c r="O87" s="4" t="n">
-        <x:v>17521130</x:v>
+        <x:v>216009</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:15">
@@ -3818,34 +3817,34 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F88" s="4" t="n">
-        <x:v>548773</x:v>
+        <x:v>163034</x:v>
       </x:c>
       <x:c r="G88" s="4" t="n">
-        <x:v>555486</x:v>
+        <x:v>168943</x:v>
       </x:c>
       <x:c r="H88" s="4" t="n">
-        <x:v>586689</x:v>
+        <x:v>178054</x:v>
       </x:c>
       <x:c r="I88" s="4" t="n">
-        <x:v>602837</x:v>
+        <x:v>185831</x:v>
       </x:c>
       <x:c r="J88" s="4" t="n">
-        <x:v>612234</x:v>
+        <x:v>190135</x:v>
       </x:c>
       <x:c r="K88" s="4" t="n">
-        <x:v>616102</x:v>
+        <x:v>191932</x:v>
       </x:c>
       <x:c r="L88" s="4" t="n">
-        <x:v>644270</x:v>
+        <x:v>201209</x:v>
       </x:c>
       <x:c r="M88" s="4" t="n">
-        <x:v>635237</x:v>
+        <x:v>198449</x:v>
       </x:c>
       <x:c r="N88" s="4" t="n">
-        <x:v>662959</x:v>
+        <x:v>206851</x:v>
       </x:c>
       <x:c r="O88" s="4" t="n">
-        <x:v>676620</x:v>
+        <x:v>211378</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:15">
@@ -3853,34 +3852,34 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F89" s="4" t="n">
-        <x:v>13131119</x:v>
+        <x:v>187638</x:v>
       </x:c>
       <x:c r="G89" s="4" t="n">
-        <x:v>13891795</x:v>
+        <x:v>196921</x:v>
       </x:c>
       <x:c r="H89" s="4" t="n">
-        <x:v>13984371</x:v>
+        <x:v>196924</x:v>
       </x:c>
       <x:c r="I89" s="4" t="n">
-        <x:v>14747343</x:v>
+        <x:v>206829</x:v>
       </x:c>
       <x:c r="J89" s="4" t="n">
-        <x:v>15165748</x:v>
+        <x:v>211472</x:v>
       </x:c>
       <x:c r="K89" s="4" t="n">
-        <x:v>14680371</x:v>
+        <x:v>203470</x:v>
       </x:c>
       <x:c r="L89" s="4" t="n">
-        <x:v>16273214</x:v>
+        <x:v>223506</x:v>
       </x:c>
       <x:c r="M89" s="4" t="n">
-        <x:v>17173557</x:v>
+        <x:v>233727</x:v>
       </x:c>
       <x:c r="N89" s="4" t="n">
-        <x:v>17602183</x:v>
+        <x:v>236754</x:v>
       </x:c>
       <x:c r="O89" s="4" t="n">
-        <x:v>18274279</x:v>
+        <x:v>242114</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:15">
@@ -3888,34 +3887,34 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="F90" s="4" t="n">
-        <x:v>8568207</x:v>
+        <x:v>194101</x:v>
       </x:c>
       <x:c r="G90" s="4" t="n">
-        <x:v>9442473</x:v>
+        <x:v>212090</x:v>
       </x:c>
       <x:c r="H90" s="4" t="n">
-        <x:v>9803390</x:v>
+        <x:v>217897</x:v>
       </x:c>
       <x:c r="I90" s="4" t="n">
-        <x:v>10149704</x:v>
+        <x:v>224700</x:v>
       </x:c>
       <x:c r="J90" s="4" t="n">
-        <x:v>10458631</x:v>
+        <x:v>229900</x:v>
       </x:c>
       <x:c r="K90" s="4" t="n">
-        <x:v>10892635</x:v>
+        <x:v>236632</x:v>
       </x:c>
       <x:c r="L90" s="4" t="n">
-        <x:v>11266204</x:v>
+        <x:v>241806</x:v>
       </x:c>
       <x:c r="M90" s="4" t="n">
-        <x:v>11699095</x:v>
+        <x:v>246624</x:v>
       </x:c>
       <x:c r="N90" s="4" t="n">
-        <x:v>12149348</x:v>
+        <x:v>252543</x:v>
       </x:c>
       <x:c r="O90" s="4" t="n">
-        <x:v>12678368</x:v>
+        <x:v>259984</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:15">
@@ -3923,34 +3922,34 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F91" s="4" t="n">
-        <x:v>5899606</x:v>
+        <x:v>177203</x:v>
       </x:c>
       <x:c r="G91" s="4" t="n">
-        <x:v>6440547</x:v>
+        <x:v>190967</x:v>
       </x:c>
       <x:c r="H91" s="4" t="n">
-        <x:v>6636149</x:v>
+        <x:v>195670</x:v>
       </x:c>
       <x:c r="I91" s="4" t="n">
-        <x:v>6910643</x:v>
+        <x:v>203242</x:v>
       </x:c>
       <x:c r="J91" s="4" t="n">
-        <x:v>7282815</x:v>
+        <x:v>212674</x:v>
       </x:c>
       <x:c r="K91" s="4" t="n">
-        <x:v>7193386</x:v>
+        <x:v>209916</x:v>
       </x:c>
       <x:c r="L91" s="4" t="n">
-        <x:v>7458885</x:v>
+        <x:v>216081</x:v>
       </x:c>
       <x:c r="M91" s="4" t="n">
-        <x:v>7692369</x:v>
+        <x:v>221772</x:v>
       </x:c>
       <x:c r="N91" s="4" t="n">
-        <x:v>7992032</x:v>
+        <x:v>227428</x:v>
       </x:c>
       <x:c r="O91" s="4" t="n">
-        <x:v>8149115</x:v>
+        <x:v>230006</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:15">
@@ -3958,34 +3957,34 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="F92" s="4" t="n">
-        <x:v>44558110</x:v>
+        <x:v>177687</x:v>
       </x:c>
       <x:c r="G92" s="4" t="n">
-        <x:v>49122585</x:v>
+        <x:v>192946</x:v>
       </x:c>
       <x:c r="H92" s="4" t="n">
-        <x:v>50703615</x:v>
+        <x:v>196346</x:v>
       </x:c>
       <x:c r="I92" s="4" t="n">
-        <x:v>52517983</x:v>
+        <x:v>200098</x:v>
       </x:c>
       <x:c r="J92" s="4" t="n">
-        <x:v>55289302</x:v>
+        <x:v>207081</x:v>
       </x:c>
       <x:c r="K92" s="4" t="n">
-        <x:v>56920337</x:v>
+        <x:v>211446</x:v>
       </x:c>
       <x:c r="L92" s="4" t="n">
-        <x:v>59919159</x:v>
+        <x:v>220011</x:v>
       </x:c>
       <x:c r="M92" s="4" t="n">
-        <x:v>61203692</x:v>
+        <x:v>221100</x:v>
       </x:c>
       <x:c r="N92" s="4" t="n">
-        <x:v>64384438</x:v>
+        <x:v>228901</x:v>
       </x:c>
       <x:c r="O92" s="4" t="n">
-        <x:v>66976041</x:v>
+        <x:v>234439</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:15">
@@ -3993,34 +3992,34 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="F93" s="4" t="n">
-        <x:v>58829863</x:v>
+        <x:v>172429</x:v>
       </x:c>
       <x:c r="G93" s="4" t="n">
-        <x:v>64149999</x:v>
+        <x:v>187439</x:v>
       </x:c>
       <x:c r="H93" s="4" t="n">
-        <x:v>66153754</x:v>
+        <x:v>192767</x:v>
       </x:c>
       <x:c r="I93" s="4" t="n">
-        <x:v>67630979</x:v>
+        <x:v>196635</x:v>
       </x:c>
       <x:c r="J93" s="4" t="n">
-        <x:v>69748384</x:v>
+        <x:v>202549</x:v>
       </x:c>
       <x:c r="K93" s="4" t="n">
-        <x:v>70560341</x:v>
+        <x:v>204432</x:v>
       </x:c>
       <x:c r="L93" s="4" t="n">
-        <x:v>72465728</x:v>
+        <x:v>208983</x:v>
       </x:c>
       <x:c r="M93" s="4" t="n">
-        <x:v>74002887</x:v>
+        <x:v>212054</x:v>
       </x:c>
       <x:c r="N93" s="4" t="n">
-        <x:v>77112586</x:v>
+        <x:v>219814</x:v>
       </x:c>
       <x:c r="O93" s="4" t="n">
-        <x:v>78772445</x:v>
+        <x:v>223919</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:15">
@@ -4028,34 +4027,34 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="F94" s="4" t="n">
-        <x:v>11889247</x:v>
+        <x:v>174893</x:v>
       </x:c>
       <x:c r="G94" s="4" t="n">
-        <x:v>13049599</x:v>
+        <x:v>190683</x:v>
       </x:c>
       <x:c r="H94" s="4" t="n">
-        <x:v>13752176</x:v>
+        <x:v>199171</x:v>
       </x:c>
       <x:c r="I94" s="4" t="n">
-        <x:v>13823923</x:v>
+        <x:v>199123</x:v>
       </x:c>
       <x:c r="J94" s="4" t="n">
-        <x:v>14224965</x:v>
+        <x:v>203505</x:v>
       </x:c>
       <x:c r="K94" s="4" t="n">
-        <x:v>14599579</x:v>
+        <x:v>208360</x:v>
       </x:c>
       <x:c r="L94" s="4" t="n">
-        <x:v>14993250</x:v>
+        <x:v>211934</x:v>
       </x:c>
       <x:c r="M94" s="4" t="n">
-        <x:v>15464531</x:v>
+        <x:v>216136</x:v>
       </x:c>
       <x:c r="N94" s="4" t="n">
-        <x:v>16122226</x:v>
+        <x:v>223994</x:v>
       </x:c>
       <x:c r="O94" s="4" t="n">
-        <x:v>16570881</x:v>
+        <x:v>229212</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:15">
@@ -4063,34 +4062,34 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="F95" s="4" t="n">
-        <x:v>7925060</x:v>
+        <x:v>173063</x:v>
       </x:c>
       <x:c r="G95" s="4" t="n">
-        <x:v>8702374</x:v>
+        <x:v>189285</x:v>
       </x:c>
       <x:c r="H95" s="4" t="n">
-        <x:v>8969246</x:v>
+        <x:v>195009</x:v>
       </x:c>
       <x:c r="I95" s="4" t="n">
-        <x:v>9308663</x:v>
+        <x:v>201477</x:v>
       </x:c>
       <x:c r="J95" s="4" t="n">
-        <x:v>9670008</x:v>
+        <x:v>208410</x:v>
       </x:c>
       <x:c r="K95" s="4" t="n">
-        <x:v>9699039</x:v>
+        <x:v>208196</x:v>
       </x:c>
       <x:c r="L95" s="4" t="n">
-        <x:v>9933156</x:v>
+        <x:v>212478</x:v>
       </x:c>
       <x:c r="M95" s="4" t="n">
-        <x:v>10040127</x:v>
+        <x:v>213089</x:v>
       </x:c>
       <x:c r="N95" s="4" t="n">
-        <x:v>10473202</x:v>
+        <x:v>220535</x:v>
       </x:c>
       <x:c r="O95" s="4" t="n">
-        <x:v>10691770</x:v>
+        <x:v>224254</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:15">
@@ -4098,34 +4097,34 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="F96" s="4" t="n">
-        <x:v>5399770</x:v>
+        <x:v>169166</x:v>
       </x:c>
       <x:c r="G96" s="4" t="n">
-        <x:v>5935584</x:v>
+        <x:v>184078</x:v>
       </x:c>
       <x:c r="H96" s="4" t="n">
-        <x:v>6147725</x:v>
+        <x:v>190432</x:v>
       </x:c>
       <x:c r="I96" s="4" t="n">
-        <x:v>6271188</x:v>
+        <x:v>193896</x:v>
       </x:c>
       <x:c r="J96" s="4" t="n">
-        <x:v>6540455</x:v>
+        <x:v>201456</x:v>
       </x:c>
       <x:c r="K96" s="4" t="n">
-        <x:v>6568133</x:v>
+        <x:v>201643</x:v>
       </x:c>
       <x:c r="L96" s="4" t="n">
-        <x:v>6794456</x:v>
+        <x:v>207661</x:v>
       </x:c>
       <x:c r="M96" s="4" t="n">
-        <x:v>6983938</x:v>
+        <x:v>212149</x:v>
       </x:c>
       <x:c r="N96" s="4" t="n">
-        <x:v>7255573</x:v>
+        <x:v>218377</x:v>
       </x:c>
       <x:c r="O96" s="4" t="n">
-        <x:v>7397315</x:v>
+        <x:v>221583</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:15">
@@ -4133,34 +4132,34 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F97" s="4" t="n">
-        <x:v>2910672</x:v>
+        <x:v>164417</x:v>
       </x:c>
       <x:c r="G97" s="4" t="n">
-        <x:v>3262147</x:v>
+        <x:v>185476</x:v>
       </x:c>
       <x:c r="H97" s="4" t="n">
-        <x:v>3317493</x:v>
+        <x:v>189387</x:v>
       </x:c>
       <x:c r="I97" s="4" t="n">
-        <x:v>3347820</x:v>
+        <x:v>190977</x:v>
       </x:c>
       <x:c r="J97" s="4" t="n">
-        <x:v>3527854</x:v>
+        <x:v>202704</x:v>
       </x:c>
       <x:c r="K97" s="4" t="n">
-        <x:v>3458841</x:v>
+        <x:v>201025</x:v>
       </x:c>
       <x:c r="L97" s="4" t="n">
-        <x:v>3549294</x:v>
+        <x:v>208170</x:v>
       </x:c>
       <x:c r="M97" s="4" t="n">
-        <x:v>3685317</x:v>
+        <x:v>215996</x:v>
       </x:c>
       <x:c r="N97" s="4" t="n">
-        <x:v>3743778</x:v>
+        <x:v>220222</x:v>
       </x:c>
       <x:c r="O97" s="4" t="n">
-        <x:v>3681899</x:v>
+        <x:v>217221</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:15">
@@ -4168,34 +4167,34 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F98" s="4" t="n">
-        <x:v>7967046</x:v>
+        <x:v>171904</x:v>
       </x:c>
       <x:c r="G98" s="4" t="n">
-        <x:v>8631553</x:v>
+        <x:v>186306</x:v>
       </x:c>
       <x:c r="H98" s="4" t="n">
-        <x:v>8867678</x:v>
+        <x:v>191423</x:v>
       </x:c>
       <x:c r="I98" s="4" t="n">
-        <x:v>9134903</x:v>
+        <x:v>197298</x:v>
       </x:c>
       <x:c r="J98" s="4" t="n">
-        <x:v>9306146</x:v>
+        <x:v>201816</x:v>
       </x:c>
       <x:c r="K98" s="4" t="n">
-        <x:v>9428887</x:v>
+        <x:v>204248</x:v>
       </x:c>
       <x:c r="L98" s="4" t="n">
-        <x:v>9596682</x:v>
+        <x:v>207635</x:v>
       </x:c>
       <x:c r="M98" s="4" t="n">
-        <x:v>9652906</x:v>
+        <x:v>208666</x:v>
       </x:c>
       <x:c r="N98" s="4" t="n">
-        <x:v>10135480</x:v>
+        <x:v>218399</x:v>
       </x:c>
       <x:c r="O98" s="4" t="n">
-        <x:v>10285024</x:v>
+        <x:v>221198</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:15">
@@ -4203,34 +4202,34 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F99" s="4" t="n">
-        <x:v>6537807</x:v>
+        <x:v>167319</x:v>
       </x:c>
       <x:c r="G99" s="4" t="n">
-        <x:v>6977785</x:v>
+        <x:v>178510</x:v>
       </x:c>
       <x:c r="H99" s="4" t="n">
-        <x:v>7146677</x:v>
+        <x:v>183229</x:v>
       </x:c>
       <x:c r="I99" s="4" t="n">
-        <x:v>7313185</x:v>
+        <x:v>188348</x:v>
       </x:c>
       <x:c r="J99" s="4" t="n">
-        <x:v>7425952</x:v>
+        <x:v>192153</x:v>
       </x:c>
       <x:c r="K99" s="4" t="n">
-        <x:v>7511453</x:v>
+        <x:v>194850</x:v>
       </x:c>
       <x:c r="L99" s="4" t="n">
-        <x:v>7717181</x:v>
+        <x:v>200114</x:v>
       </x:c>
       <x:c r="M99" s="4" t="n">
-        <x:v>7865353</x:v>
+        <x:v>203607</x:v>
       </x:c>
       <x:c r="N99" s="4" t="n">
-        <x:v>8186721</x:v>
+        <x:v>210900</x:v>
       </x:c>
       <x:c r="O99" s="4" t="n">
-        <x:v>8317379</x:v>
+        <x:v>215303</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:15">
@@ -4238,34 +4237,34 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="F100" s="4" t="n">
-        <x:v>3099276</x:v>
+        <x:v>171382</x:v>
       </x:c>
       <x:c r="G100" s="4" t="n">
-        <x:v>3295744</x:v>
+        <x:v>183709</x:v>
       </x:c>
       <x:c r="H100" s="4" t="n">
-        <x:v>3371659</x:v>
+        <x:v>188350</x:v>
       </x:c>
       <x:c r="I100" s="4" t="n">
-        <x:v>3442536</x:v>
+        <x:v>193412</x:v>
       </x:c>
       <x:c r="J100" s="4" t="n">
-        <x:v>3481854</x:v>
+        <x:v>196670</x:v>
       </x:c>
       <x:c r="K100" s="4" t="n">
-        <x:v>3476706</x:v>
+        <x:v>196535</x:v>
       </x:c>
       <x:c r="L100" s="4" t="n">
-        <x:v>3556498</x:v>
+        <x:v>200626</x:v>
       </x:c>
       <x:c r="M100" s="4" t="n">
-        <x:v>3582033</x:v>
+        <x:v>202272</x:v>
       </x:c>
       <x:c r="N100" s="4" t="n">
-        <x:v>3703430</x:v>
+        <x:v>208726</x:v>
       </x:c>
       <x:c r="O100" s="4" t="n">
-        <x:v>3785757</x:v>
+        <x:v>213174</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:15">
@@ -4273,34 +4272,34 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F101" s="4" t="n">
-        <x:v>13100984</x:v>
+        <x:v>176363</x:v>
       </x:c>
       <x:c r="G101" s="4" t="n">
-        <x:v>14295214</x:v>
+        <x:v>191517</x:v>
       </x:c>
       <x:c r="H101" s="4" t="n">
-        <x:v>14581102</x:v>
+        <x:v>194133</x:v>
       </x:c>
       <x:c r="I101" s="4" t="n">
-        <x:v>14988761</x:v>
+        <x:v>198487</x:v>
       </x:c>
       <x:c r="J101" s="4" t="n">
-        <x:v>15571150</x:v>
+        <x:v>205636</x:v>
       </x:c>
       <x:c r="K101" s="4" t="n">
-        <x:v>15817703</x:v>
+        <x:v>207269</x:v>
       </x:c>
       <x:c r="L101" s="4" t="n">
-        <x:v>16325211</x:v>
+        <x:v>212065</x:v>
       </x:c>
       <x:c r="M101" s="4" t="n">
-        <x:v>16728681</x:v>
+        <x:v>215204</x:v>
       </x:c>
       <x:c r="N101" s="4" t="n">
-        <x:v>17492177</x:v>
+        <x:v>223831</x:v>
       </x:c>
       <x:c r="O101" s="4" t="n">
-        <x:v>18042419</x:v>
+        <x:v>229556</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:15">
@@ -4308,34 +4307,34 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F102" s="4" t="n">
-        <x:v>79030806</x:v>
+        <x:v>167036</x:v>
       </x:c>
       <x:c r="G102" s="4" t="n">
-        <x:v>85476585</x:v>
+        <x:v>180113</x:v>
       </x:c>
       <x:c r="H102" s="4" t="n">
-        <x:v>88105507</x:v>
+        <x:v>185103</x:v>
       </x:c>
       <x:c r="I102" s="4" t="n">
-        <x:v>90865532</x:v>
+        <x:v>190254</x:v>
       </x:c>
       <x:c r="J102" s="4" t="n">
-        <x:v>93469004</x:v>
+        <x:v>194803</x:v>
       </x:c>
       <x:c r="K102" s="4" t="n">
-        <x:v>95063855</x:v>
+        <x:v>197340</x:v>
       </x:c>
       <x:c r="L102" s="4" t="n">
-        <x:v>97463533</x:v>
+        <x:v>201423</x:v>
       </x:c>
       <x:c r="M102" s="4" t="n">
-        <x:v>99686846</x:v>
+        <x:v>204872</x:v>
       </x:c>
       <x:c r="N102" s="4" t="n">
-        <x:v>103564353</x:v>
+        <x:v>211753</x:v>
       </x:c>
       <x:c r="O102" s="4" t="n">
-        <x:v>106078480</x:v>
+        <x:v>216268</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:15">
@@ -4343,34 +4342,34 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F103" s="4" t="n">
-        <x:v>4650679</x:v>
+        <x:v>161583</x:v>
       </x:c>
       <x:c r="G103" s="4" t="n">
-        <x:v>5069129</x:v>
+        <x:v>176238</x:v>
       </x:c>
       <x:c r="H103" s="4" t="n">
-        <x:v>5211941</x:v>
+        <x:v>180932</x:v>
       </x:c>
       <x:c r="I103" s="4" t="n">
-        <x:v>5403997</x:v>
+        <x:v>188057</x:v>
       </x:c>
       <x:c r="J103" s="4" t="n">
-        <x:v>5582657</x:v>
+        <x:v>193506</x:v>
       </x:c>
       <x:c r="K103" s="4" t="n">
-        <x:v>5655336</x:v>
+        <x:v>195355</x:v>
       </x:c>
       <x:c r="L103" s="4" t="n">
-        <x:v>5779514</x:v>
+        <x:v>198125</x:v>
       </x:c>
       <x:c r="M103" s="4" t="n">
-        <x:v>6058653</x:v>
+        <x:v>206456</x:v>
       </x:c>
       <x:c r="N103" s="4" t="n">
-        <x:v>6184980</x:v>
+        <x:v>208860</x:v>
       </x:c>
       <x:c r="O103" s="4" t="n">
-        <x:v>6269797</x:v>
+        <x:v>211674</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:15">
@@ -4378,34 +4377,34 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="F104" s="4" t="n">
-        <x:v>8661410</x:v>
+        <x:v>168186</x:v>
       </x:c>
       <x:c r="G104" s="4" t="n">
-        <x:v>9304738</x:v>
+        <x:v>181012</x:v>
       </x:c>
       <x:c r="H104" s="4" t="n">
-        <x:v>9508055</x:v>
+        <x:v>185770</x:v>
       </x:c>
       <x:c r="I104" s="4" t="n">
-        <x:v>9893196</x:v>
+        <x:v>193753</x:v>
       </x:c>
       <x:c r="J104" s="4" t="n">
-        <x:v>9995774</x:v>
+        <x:v>196242</x:v>
       </x:c>
       <x:c r="K104" s="4" t="n">
-        <x:v>10077442</x:v>
+        <x:v>198040</x:v>
       </x:c>
       <x:c r="L104" s="4" t="n">
-        <x:v>10269561</x:v>
+        <x:v>201863</x:v>
       </x:c>
       <x:c r="M104" s="4" t="n">
-        <x:v>10456550</x:v>
+        <x:v>204842</x:v>
       </x:c>
       <x:c r="N104" s="4" t="n">
-        <x:v>10756542</x:v>
+        <x:v>211190</x:v>
       </x:c>
       <x:c r="O104" s="4" t="n">
-        <x:v>10913589</x:v>
+        <x:v>214560</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:15">
@@ -4413,34 +4412,34 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F105" s="4" t="n">
-        <x:v>8882563</x:v>
+        <x:v>163001</x:v>
       </x:c>
       <x:c r="G105" s="4" t="n">
-        <x:v>9617075</x:v>
+        <x:v>176671</x:v>
       </x:c>
       <x:c r="H105" s="4" t="n">
-        <x:v>9983145</x:v>
+        <x:v>183635</x:v>
       </x:c>
       <x:c r="I105" s="4" t="n">
-        <x:v>10265186</x:v>
+        <x:v>189370</x:v>
       </x:c>
       <x:c r="J105" s="4" t="n">
-        <x:v>10511184</x:v>
+        <x:v>194713</x:v>
       </x:c>
       <x:c r="K105" s="4" t="n">
-        <x:v>10671769</x:v>
+        <x:v>197607</x:v>
       </x:c>
       <x:c r="L105" s="4" t="n">
-        <x:v>10897758</x:v>
+        <x:v>201501</x:v>
       </x:c>
       <x:c r="M105" s="4" t="n">
-        <x:v>11095166</x:v>
+        <x:v>204651</x:v>
       </x:c>
       <x:c r="N105" s="4" t="n">
-        <x:v>11658830</x:v>
+        <x:v>214621</x:v>
       </x:c>
       <x:c r="O105" s="4" t="n">
-        <x:v>11746618</x:v>
+        <x:v>217772</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:15">
@@ -4448,34 +4447,34 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F106" s="4" t="n">
-        <x:v>5207342</x:v>
+        <x:v>165454</x:v>
       </x:c>
       <x:c r="G106" s="4" t="n">
-        <x:v>5624419</x:v>
+        <x:v>179025</x:v>
       </x:c>
       <x:c r="H106" s="4" t="n">
-        <x:v>5813467</x:v>
+        <x:v>185213</x:v>
       </x:c>
       <x:c r="I106" s="4" t="n">
-        <x:v>6006495</x:v>
+        <x:v>190992</x:v>
       </x:c>
       <x:c r="J106" s="4" t="n">
-        <x:v>6165716</x:v>
+        <x:v>196579</x:v>
       </x:c>
       <x:c r="K106" s="4" t="n">
-        <x:v>6208649</x:v>
+        <x:v>197244</x:v>
       </x:c>
       <x:c r="L106" s="4" t="n">
-        <x:v>6331518</x:v>
+        <x:v>200225</x:v>
       </x:c>
       <x:c r="M106" s="4" t="n">
-        <x:v>6424282</x:v>
+        <x:v>202263</x:v>
       </x:c>
       <x:c r="N106" s="4" t="n">
-        <x:v>6628843</x:v>
+        <x:v>207677</x:v>
       </x:c>
       <x:c r="O106" s="4" t="n">
-        <x:v>6788309</x:v>
+        <x:v>213308</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:15">
@@ -4483,34 +4482,34 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="F107" s="4" t="n">
-        <x:v>263979</x:v>
+        <x:v>155465</x:v>
       </x:c>
       <x:c r="G107" s="4" t="n">
-        <x:v>289413</x:v>
+        <x:v>170443</x:v>
       </x:c>
       <x:c r="H107" s="4" t="n">
-        <x:v>295624</x:v>
+        <x:v>176809</x:v>
       </x:c>
       <x:c r="I107" s="4" t="n">
-        <x:v>296818</x:v>
+        <x:v>181651</x:v>
       </x:c>
       <x:c r="J107" s="4" t="n">
-        <x:v>301086</x:v>
+        <x:v>187126</x:v>
       </x:c>
       <x:c r="K107" s="4" t="n">
-        <x:v>296952</x:v>
+        <x:v>185827</x:v>
       </x:c>
       <x:c r="L107" s="4" t="n">
-        <x:v>303007</x:v>
+        <x:v>188907</x:v>
       </x:c>
       <x:c r="M107" s="4" t="n">
-        <x:v>310434</x:v>
+        <x:v>194996</x:v>
       </x:c>
       <x:c r="N107" s="4" t="n">
-        <x:v>323119</x:v>
+        <x:v>201446</x:v>
       </x:c>
       <x:c r="O107" s="4" t="n">
-        <x:v>320862</x:v>
+        <x:v>200288</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:15">
@@ -4518,34 +4517,34 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F108" s="4" t="n">
-        <x:v>5740031</x:v>
+        <x:v>166503</x:v>
       </x:c>
       <x:c r="G108" s="4" t="n">
-        <x:v>6247561</x:v>
+        <x:v>180701</x:v>
       </x:c>
       <x:c r="H108" s="4" t="n">
-        <x:v>6400992</x:v>
+        <x:v>184920</x:v>
       </x:c>
       <x:c r="I108" s="4" t="n">
-        <x:v>6569550</x:v>
+        <x:v>190422</x:v>
       </x:c>
       <x:c r="J108" s="4" t="n">
-        <x:v>6682317</x:v>
+        <x:v>193119</x:v>
       </x:c>
       <x:c r="K108" s="4" t="n">
-        <x:v>6855044</x:v>
+        <x:v>197592</x:v>
       </x:c>
       <x:c r="L108" s="4" t="n">
-        <x:v>6973163</x:v>
+        <x:v>200465</x:v>
       </x:c>
       <x:c r="M108" s="4" t="n">
-        <x:v>7136309</x:v>
+        <x:v>204608</x:v>
       </x:c>
       <x:c r="N108" s="4" t="n">
-        <x:v>7389265</x:v>
+        <x:v>210959</x:v>
       </x:c>
       <x:c r="O108" s="4" t="n">
-        <x:v>7580620</x:v>
+        <x:v>216354</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:15">
@@ -4553,34 +4552,34 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="F109" s="4" t="n">
-        <x:v>2816246</x:v>
+        <x:v>156798</x:v>
       </x:c>
       <x:c r="G109" s="4" t="n">
-        <x:v>2965817</x:v>
+        <x:v>166264</x:v>
       </x:c>
       <x:c r="H109" s="4" t="n">
-        <x:v>3091938</x:v>
+        <x:v>174164</x:v>
       </x:c>
       <x:c r="I109" s="4" t="n">
-        <x:v>3155313</x:v>
+        <x:v>178822</x:v>
       </x:c>
       <x:c r="J109" s="4" t="n">
-        <x:v>3240955</x:v>
+        <x:v>184638</x:v>
       </x:c>
       <x:c r="K109" s="4" t="n">
-        <x:v>3257908</x:v>
+        <x:v>186678</x:v>
       </x:c>
       <x:c r="L109" s="4" t="n">
-        <x:v>3288670</x:v>
+        <x:v>190725</x:v>
       </x:c>
       <x:c r="M109" s="4" t="n">
-        <x:v>3333992</x:v>
+        <x:v>192683</x:v>
       </x:c>
       <x:c r="N109" s="4" t="n">
-        <x:v>3460633</x:v>
+        <x:v>200628</x:v>
       </x:c>
       <x:c r="O109" s="4" t="n">
-        <x:v>3480290</x:v>
+        <x:v>202190</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:15">
@@ -4588,34 +4587,34 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="F110" s="4" t="n">
-        <x:v>3987029</x:v>
+        <x:v>176004</x:v>
       </x:c>
       <x:c r="G110" s="4" t="n">
-        <x:v>4327951</x:v>
+        <x:v>189881</x:v>
       </x:c>
       <x:c r="H110" s="4" t="n">
-        <x:v>4529992</x:v>
+        <x:v>198058</x:v>
       </x:c>
       <x:c r="I110" s="4" t="n">
-        <x:v>4666775</x:v>
+        <x:v>204486</x:v>
       </x:c>
       <x:c r="J110" s="4" t="n">
-        <x:v>4839713</x:v>
+        <x:v>211397</x:v>
       </x:c>
       <x:c r="K110" s="4" t="n">
-        <x:v>4925636</x:v>
+        <x:v>215056</x:v>
       </x:c>
       <x:c r="L110" s="4" t="n">
-        <x:v>5057834</x:v>
+        <x:v>218859</x:v>
       </x:c>
       <x:c r="M110" s="4" t="n">
-        <x:v>5204015</x:v>
+        <x:v>223042</x:v>
       </x:c>
       <x:c r="N110" s="4" t="n">
-        <x:v>5491657</x:v>
+        <x:v>231559</x:v>
       </x:c>
       <x:c r="O110" s="4" t="n">
-        <x:v>5687363</x:v>
+        <x:v>238925</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:15">
@@ -4623,34 +4622,34 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="F111" s="4" t="n">
-        <x:v>5983071</x:v>
+        <x:v>162535</x:v>
       </x:c>
       <x:c r="G111" s="4" t="n">
-        <x:v>6468746</x:v>
+        <x:v>175719</x:v>
       </x:c>
       <x:c r="H111" s="4" t="n">
-        <x:v>6650079</x:v>
+        <x:v>181162</x:v>
       </x:c>
       <x:c r="I111" s="4" t="n">
-        <x:v>6759565</x:v>
+        <x:v>185067</x:v>
       </x:c>
       <x:c r="J111" s="4" t="n">
-        <x:v>7005236</x:v>
+        <x:v>191877</x:v>
       </x:c>
       <x:c r="K111" s="4" t="n">
-        <x:v>7020002</x:v>
+        <x:v>192974</x:v>
       </x:c>
       <x:c r="L111" s="4" t="n">
-        <x:v>7223079</x:v>
+        <x:v>199175</x:v>
       </x:c>
       <x:c r="M111" s="4" t="n">
-        <x:v>7366159</x:v>
+        <x:v>203311</x:v>
       </x:c>
       <x:c r="N111" s="4" t="n">
-        <x:v>7582889</x:v>
+        <x:v>209281</x:v>
       </x:c>
       <x:c r="O111" s="4" t="n">
-        <x:v>7707001</x:v>
+        <x:v>213065</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:15">
@@ -4658,34 +4657,34 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="F112" s="4" t="n">
-        <x:v>4907187</x:v>
+        <x:v>159386</x:v>
       </x:c>
       <x:c r="G112" s="4" t="n">
-        <x:v>5227847</x:v>
+        <x:v>170310</x:v>
       </x:c>
       <x:c r="H112" s="4" t="n">
-        <x:v>5430252</x:v>
+        <x:v>177831</x:v>
       </x:c>
       <x:c r="I112" s="4" t="n">
-        <x:v>5585591</x:v>
+        <x:v>182149</x:v>
       </x:c>
       <x:c r="J112" s="4" t="n">
-        <x:v>5761532</x:v>
+        <x:v>187954</x:v>
       </x:c>
       <x:c r="K112" s="4" t="n">
-        <x:v>5807631</x:v>
+        <x:v>189997</x:v>
       </x:c>
       <x:c r="L112" s="4" t="n">
-        <x:v>5895257</x:v>
+        <x:v>192756</x:v>
       </x:c>
       <x:c r="M112" s="4" t="n">
-        <x:v>6014646</x:v>
+        <x:v>196166</x:v>
       </x:c>
       <x:c r="N112" s="4" t="n">
-        <x:v>6270615</x:v>
+        <x:v>204308</x:v>
       </x:c>
       <x:c r="O112" s="4" t="n">
-        <x:v>6386216</x:v>
+        <x:v>208305</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:15">
@@ -4693,34 +4692,34 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="F113" s="4" t="n">
-        <x:v>27931269</x:v>
+        <x:v>171881</x:v>
       </x:c>
       <x:c r="G113" s="4" t="n">
-        <x:v>30333888</x:v>
+        <x:v>184804</x:v>
       </x:c>
       <x:c r="H113" s="4" t="n">
-        <x:v>31190023</x:v>
+        <x:v>187797</x:v>
       </x:c>
       <x:c r="I113" s="4" t="n">
-        <x:v>32263045</x:v>
+        <x:v>191634</x:v>
       </x:c>
       <x:c r="J113" s="4" t="n">
-        <x:v>33382835</x:v>
+        <x:v>195384</x:v>
       </x:c>
       <x:c r="K113" s="4" t="n">
-        <x:v>34287487</x:v>
+        <x:v>198403</x:v>
       </x:c>
       <x:c r="L113" s="4" t="n">
-        <x:v>35444171</x:v>
+        <x:v>203080</x:v>
       </x:c>
       <x:c r="M113" s="4" t="n">
-        <x:v>36286641</x:v>
+        <x:v>205924</x:v>
       </x:c>
       <x:c r="N113" s="4" t="n">
-        <x:v>37816979</x:v>
+        <x:v>212729</x:v>
       </x:c>
       <x:c r="O113" s="4" t="n">
-        <x:v>39197815</x:v>
+        <x:v>218056</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:15">
